--- a/BackTest/2019-10-27 BackTest MTL.xlsx
+++ b/BackTest/2019-10-27 BackTest MTL.xlsx
@@ -4441,143 +4441,131 @@
         <v>347.6666666666667</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>348</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>350</v>
+      </c>
+      <c r="C117" t="n">
+        <v>349</v>
+      </c>
+      <c r="D117" t="n">
+        <v>350</v>
+      </c>
+      <c r="E117" t="n">
+        <v>349</v>
+      </c>
+      <c r="F117" t="n">
+        <v>117.0505</v>
+      </c>
+      <c r="G117" t="n">
+        <v>348</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>352</v>
+      </c>
+      <c r="C118" t="n">
+        <v>352</v>
+      </c>
+      <c r="D118" t="n">
+        <v>352</v>
+      </c>
+      <c r="E118" t="n">
+        <v>352</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G118" t="n">
+        <v>349.3333333333333</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>349</v>
+      </c>
+      <c r="K118" t="n">
+        <v>349</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>350</v>
+      </c>
+      <c r="C119" t="n">
+        <v>351</v>
+      </c>
+      <c r="D119" t="n">
+        <v>351</v>
+      </c>
+      <c r="E119" t="n">
+        <v>349</v>
+      </c>
+      <c r="F119" t="n">
+        <v>300.8341</v>
+      </c>
+      <c r="G119" t="n">
+        <v>350.6666666666667</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>352</v>
+      </c>
+      <c r="K119" t="n">
+        <v>349</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>350</v>
-      </c>
-      <c r="C117" t="n">
-        <v>349</v>
-      </c>
-      <c r="D117" t="n">
-        <v>350</v>
-      </c>
-      <c r="E117" t="n">
-        <v>349</v>
-      </c>
-      <c r="F117" t="n">
-        <v>117.0505</v>
-      </c>
-      <c r="G117" t="n">
-        <v>348</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>350</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>352</v>
-      </c>
-      <c r="C118" t="n">
-        <v>352</v>
-      </c>
-      <c r="D118" t="n">
-        <v>352</v>
-      </c>
-      <c r="E118" t="n">
-        <v>352</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="G118" t="n">
-        <v>349.3333333333333</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>352</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>350</v>
-      </c>
-      <c r="C119" t="n">
-        <v>351</v>
-      </c>
-      <c r="D119" t="n">
-        <v>351</v>
-      </c>
-      <c r="E119" t="n">
-        <v>349</v>
-      </c>
-      <c r="F119" t="n">
-        <v>300.8341</v>
-      </c>
-      <c r="G119" t="n">
-        <v>350.6666666666667</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>350</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4605,13 +4593,17 @@
         <v>351.3333333333333</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>351</v>
+      </c>
+      <c r="K120" t="n">
+        <v>349</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4644,13 +4636,17 @@
         <v>350</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>351</v>
+      </c>
+      <c r="K121" t="n">
+        <v>349</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4689,7 +4685,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>349</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4728,7 +4726,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>349</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4767,7 +4767,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>349</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4806,7 +4808,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>349</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4845,7 +4849,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>349</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4884,7 +4890,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>349</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4917,15 +4925,15 @@
         <v>348</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>349</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>349</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4958,15 +4966,15 @@
         <v>347.6666666666667</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>347</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>349</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4999,15 +5007,15 @@
         <v>347</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>348</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>349</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5040,15 +5048,15 @@
         <v>347.6666666666667</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>349</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>349</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5081,15 +5089,15 @@
         <v>348.3333333333333</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>348</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>349</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5122,15 +5130,15 @@
         <v>349</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>350</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>349</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5163,15 +5171,15 @@
         <v>349</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>349</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>349</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5204,15 +5212,15 @@
         <v>349</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>348</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>349</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5245,15 +5253,15 @@
         <v>348.6666666666667</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>349</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>349</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5286,15 +5294,15 @@
         <v>348.3333333333333</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>348</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>349</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5327,15 +5335,15 @@
         <v>348</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>348</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>349</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5368,15 +5376,15 @@
         <v>348.3333333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>347</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>349</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5409,15 +5417,15 @@
         <v>348.3333333333333</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>348</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>349</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5450,15 +5458,15 @@
         <v>349</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>346</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>349</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5491,15 +5499,15 @@
         <v>347.6666666666667</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>348</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>349</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5532,15 +5540,15 @@
         <v>348.3333333333333</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>350</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>349</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5573,15 +5581,15 @@
         <v>348.6666666666667</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>350</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>349</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5614,15 +5622,15 @@
         <v>349.6666666666667</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>349</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>349</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5655,15 +5663,15 @@
         <v>349.6666666666667</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>350</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>349</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5696,15 +5704,15 @@
         <v>349.3333333333333</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>349</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>349</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5743,7 +5751,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>349</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5776,15 +5786,15 @@
         <v>349</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>349</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>349</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5817,15 +5827,15 @@
         <v>348.6666666666667</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>348</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>349</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5858,15 +5868,15 @@
         <v>348.3333333333333</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>348</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>349</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5899,15 +5909,15 @@
         <v>348</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>348</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>349</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5940,15 +5950,15 @@
         <v>348</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>348</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>349</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5981,15 +5991,15 @@
         <v>348</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>348</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>349</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6022,15 +6032,15 @@
         <v>348</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>348</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>349</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6063,15 +6073,15 @@
         <v>347.3333333333333</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>347</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>349</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6104,15 +6114,15 @@
         <v>346.6666666666667</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>346</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>349</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6145,15 +6155,15 @@
         <v>346.6666666666667</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>349</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>349</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6186,15 +6196,15 @@
         <v>347.3333333333333</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>348</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>349</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6227,15 +6237,15 @@
         <v>348.3333333333333</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>349</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>349</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6268,15 +6278,15 @@
         <v>348</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>348</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>349</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6309,15 +6319,15 @@
         <v>348.3333333333333</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>349</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>349</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6350,15 +6360,15 @@
         <v>347.6666666666667</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>348</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>349</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6391,15 +6401,15 @@
         <v>347.3333333333333</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>347</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>349</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6432,15 +6442,15 @@
         <v>347.3333333333333</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>348</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>349</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6473,15 +6483,15 @@
         <v>348</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>349</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>349</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6514,15 +6524,15 @@
         <v>349.3333333333333</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>350</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>349</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6555,15 +6565,15 @@
         <v>349.6666666666667</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>350</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>349</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6596,15 +6606,15 @@
         <v>350</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>350</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>349</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6637,15 +6647,15 @@
         <v>349.6666666666667</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>349</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>349</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6678,15 +6688,15 @@
         <v>349.6666666666667</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>350</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>349</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6719,15 +6729,15 @@
         <v>349.6666666666667</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>350</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>349</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6760,15 +6770,15 @@
         <v>350</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>350</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>349</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6807,7 +6817,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>349</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6846,7 +6858,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>349</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6885,7 +6899,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>349</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6924,7 +6940,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>349</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6963,7 +6981,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>349</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7002,7 +7022,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>349</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7041,7 +7063,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>349</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7080,7 +7104,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>349</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7119,7 +7145,9 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>349</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7158,7 +7186,9 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>349</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7197,7 +7227,9 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>349</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7236,7 +7268,9 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>349</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7275,7 +7309,9 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>349</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7314,7 +7350,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>349</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7353,7 +7391,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>349</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7392,7 +7432,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>349</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7431,7 +7473,9 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>349</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7470,7 +7514,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>349</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7509,7 +7555,9 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>349</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7548,7 +7596,9 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>349</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7587,7 +7637,9 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>349</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7626,7 +7678,9 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>349</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7665,7 +7719,9 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>349</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7704,7 +7760,9 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>349</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7743,7 +7801,9 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>349</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7782,7 +7842,9 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>349</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7821,7 +7883,9 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>349</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7860,7 +7924,9 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>349</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7899,7 +7965,9 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>349</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7938,7 +8006,9 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>349</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7977,7 +8047,9 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>349</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8016,7 +8088,9 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>349</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8052,17 +8126,19 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>349</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>1</v>
+        <v>1.015057306590258</v>
       </c>
     </row>
     <row r="207">
@@ -8095,11 +8171,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8134,11 +8206,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +8241,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8208,16 +8272,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8350,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
@@ -8490,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest MTL.xlsx
+++ b/BackTest/2019-10-27 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M294"/>
+  <dimension ref="A1:M295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C2" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D2" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E2" t="n">
         <v>354</v>
       </c>
       <c r="F2" t="n">
-        <v>1803.9999</v>
+        <v>12350.107</v>
       </c>
       <c r="G2" t="n">
-        <v>354.6666666666667</v>
+        <v>357.2833333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>354</v>
       </c>
       <c r="F3" t="n">
-        <v>4250</v>
+        <v>1803.9999</v>
       </c>
       <c r="G3" t="n">
-        <v>354.3333333333333</v>
+        <v>357.2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>354</v>
       </c>
       <c r="F4" t="n">
-        <v>119</v>
+        <v>4250</v>
       </c>
       <c r="G4" t="n">
-        <v>354</v>
+        <v>357.1166666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C5" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D5" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E5" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F5" t="n">
-        <v>3897.9915</v>
+        <v>119</v>
       </c>
       <c r="G5" t="n">
-        <v>355</v>
+        <v>357.0166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C6" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D6" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E6" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F6" t="n">
-        <v>224.6651</v>
+        <v>3897.9915</v>
       </c>
       <c r="G6" t="n">
-        <v>355.6666666666667</v>
+        <v>357</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>356</v>
       </c>
       <c r="F7" t="n">
-        <v>865.9999</v>
+        <v>224.6651</v>
       </c>
       <c r="G7" t="n">
-        <v>356.3333333333333</v>
+        <v>356.9333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>356</v>
       </c>
       <c r="F8" t="n">
-        <v>313.8293</v>
+        <v>865.9999</v>
       </c>
       <c r="G8" t="n">
-        <v>356</v>
+        <v>356.9333333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C9" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D9" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E9" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F9" t="n">
-        <v>911.1147</v>
+        <v>313.8293</v>
       </c>
       <c r="G9" t="n">
-        <v>355.6666666666667</v>
+        <v>356.9333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>355</v>
       </c>
       <c r="F10" t="n">
-        <v>537</v>
+        <v>911.1147</v>
       </c>
       <c r="G10" t="n">
-        <v>355.3333333333333</v>
+        <v>356.9166666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>355</v>
       </c>
       <c r="F11" t="n">
-        <v>94</v>
+        <v>537</v>
       </c>
       <c r="G11" t="n">
-        <v>355</v>
+        <v>356.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>355</v>
       </c>
       <c r="F12" t="n">
-        <v>2767.8081</v>
+        <v>94</v>
       </c>
       <c r="G12" t="n">
-        <v>355</v>
+        <v>356.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>355</v>
       </c>
       <c r="C13" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D13" t="n">
         <v>355</v>
       </c>
       <c r="E13" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F13" t="n">
-        <v>1875.9441</v>
+        <v>2767.8081</v>
       </c>
       <c r="G13" t="n">
-        <v>354.6666666666667</v>
+        <v>356.8833333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C14" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D14" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E14" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>1875.9441</v>
       </c>
       <c r="G14" t="n">
-        <v>355.3333333333333</v>
+        <v>356.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>357</v>
       </c>
       <c r="F15" t="n">
-        <v>3030.09803921</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>356</v>
+        <v>356.7166666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>357</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>3030.09803921</v>
       </c>
       <c r="G16" t="n">
-        <v>357</v>
+        <v>356.6833333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>357</v>
+        <v>356.6166666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C18" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D18" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E18" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>356.6666666666667</v>
+        <v>356.5666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C19" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D19" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E19" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>356</v>
+        <v>356.4666666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C20" t="n">
         <v>355</v>
@@ -1072,13 +1072,13 @@
         <v>355</v>
       </c>
       <c r="E20" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F20" t="n">
-        <v>25243.6373</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>355.3333333333333</v>
+        <v>356.3666666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C21" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D21" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E21" t="n">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F21" t="n">
-        <v>2753.132</v>
+        <v>25243.6373</v>
       </c>
       <c r="G21" t="n">
-        <v>355.3333333333333</v>
+        <v>356.3333333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>356</v>
       </c>
       <c r="F22" t="n">
-        <v>167.6399</v>
+        <v>2753.132</v>
       </c>
       <c r="G22" t="n">
-        <v>355.6666666666667</v>
+        <v>356.2833333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C23" t="n">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D23" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E23" t="n">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F23" t="n">
-        <v>11839.0717</v>
+        <v>167.6399</v>
       </c>
       <c r="G23" t="n">
-        <v>354</v>
+        <v>356.2666666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C24" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D24" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E24" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F24" t="n">
-        <v>929.8</v>
+        <v>11839.0717</v>
       </c>
       <c r="G24" t="n">
-        <v>352.6666666666667</v>
+        <v>356.15</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>351</v>
       </c>
       <c r="C25" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D25" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E25" t="n">
         <v>351</v>
       </c>
       <c r="F25" t="n">
-        <v>407.4401</v>
+        <v>929.8</v>
       </c>
       <c r="G25" t="n">
-        <v>351</v>
+        <v>356.0333333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C26" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D26" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E26" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F26" t="n">
-        <v>1057.6281</v>
+        <v>407.4401</v>
       </c>
       <c r="G26" t="n">
-        <v>352</v>
+        <v>355.9333333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C27" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D27" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E27" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F27" t="n">
-        <v>423.5352</v>
+        <v>1057.6281</v>
       </c>
       <c r="G27" t="n">
-        <v>353</v>
+        <v>355.8833333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C28" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D28" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E28" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F28" t="n">
-        <v>3906</v>
+        <v>423.5352</v>
       </c>
       <c r="G28" t="n">
-        <v>353</v>
+        <v>355.8666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C29" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D29" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E29" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F29" t="n">
-        <v>11561.8475</v>
+        <v>3906</v>
       </c>
       <c r="G29" t="n">
-        <v>351.3333333333333</v>
+        <v>355.7833333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C30" t="n">
         <v>348</v>
       </c>
       <c r="D30" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E30" t="n">
         <v>348</v>
       </c>
       <c r="F30" t="n">
-        <v>1344.8285</v>
+        <v>11561.8475</v>
       </c>
       <c r="G30" t="n">
-        <v>349</v>
+        <v>355.5833333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C31" t="n">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D31" t="n">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E31" t="n">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>1344.8285</v>
       </c>
       <c r="G31" t="n">
-        <v>350.3333333333333</v>
+        <v>355.45</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C32" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D32" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E32" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>352</v>
+        <v>355.4333333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C33" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D33" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E33" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F33" t="n">
-        <v>691.621</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>353</v>
+        <v>355.3666666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C34" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D34" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E34" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F34" t="n">
-        <v>23.8663</v>
+        <v>691.621</v>
       </c>
       <c r="G34" t="n">
-        <v>351.3333333333333</v>
+        <v>355.2833333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>349</v>
       </c>
       <c r="C35" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D35" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E35" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F35" t="n">
-        <v>2161.3238</v>
+        <v>23.8663</v>
       </c>
       <c r="G35" t="n">
-        <v>350.6666666666667</v>
+        <v>355.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C36" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D36" t="n">
         <v>351</v>
       </c>
       <c r="E36" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F36" t="n">
-        <v>32.1379</v>
+        <v>2161.3238</v>
       </c>
       <c r="G36" t="n">
-        <v>349.6666666666667</v>
+        <v>355.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C37" t="n">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D37" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E37" t="n">
         <v>348</v>
       </c>
       <c r="F37" t="n">
-        <v>4362.9926</v>
+        <v>32.1379</v>
       </c>
       <c r="G37" t="n">
-        <v>350</v>
+        <v>354.95</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C38" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D38" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E38" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F38" t="n">
-        <v>12.9397</v>
+        <v>4362.9926</v>
       </c>
       <c r="G38" t="n">
-        <v>349.3333333333333</v>
+        <v>354.8833333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>349</v>
       </c>
       <c r="C39" t="n">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D39" t="n">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E39" t="n">
         <v>349</v>
       </c>
       <c r="F39" t="n">
-        <v>70</v>
+        <v>12.9397</v>
       </c>
       <c r="G39" t="n">
-        <v>350.3333333333333</v>
+        <v>354.7833333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C40" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D40" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E40" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F40" t="n">
-        <v>20392.6574</v>
+        <v>70</v>
       </c>
       <c r="G40" t="n">
-        <v>348.6666666666667</v>
+        <v>354.6833333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C41" t="n">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D41" t="n">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E41" t="n">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F41" t="n">
-        <v>4.5128</v>
+        <v>20392.6574</v>
       </c>
       <c r="G41" t="n">
-        <v>349.3333333333333</v>
+        <v>354.5333333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C42" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D42" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E42" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F42" t="n">
-        <v>130.2252</v>
+        <v>4.5128</v>
       </c>
       <c r="G42" t="n">
-        <v>348.6666666666667</v>
+        <v>354.4666666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C43" t="n">
         <v>349</v>
       </c>
       <c r="D43" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E43" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F43" t="n">
-        <v>4877.3758</v>
+        <v>130.2252</v>
       </c>
       <c r="G43" t="n">
-        <v>349.6666666666667</v>
+        <v>354.3666666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C44" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D44" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E44" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F44" t="n">
-        <v>473.028</v>
+        <v>4877.3758</v>
       </c>
       <c r="G44" t="n">
-        <v>348.3333333333333</v>
+        <v>354.2666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C45" t="n">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D45" t="n">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E45" t="n">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F45" t="n">
-        <v>126.6261</v>
+        <v>473.028</v>
       </c>
       <c r="G45" t="n">
-        <v>348.6666666666667</v>
+        <v>354.1333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C46" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D46" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E46" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F46" t="n">
-        <v>2718.8189</v>
+        <v>126.6261</v>
       </c>
       <c r="G46" t="n">
-        <v>348.3333333333333</v>
+        <v>353.9833333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C47" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D47" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E47" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F47" t="n">
-        <v>917.966</v>
+        <v>2718.8189</v>
       </c>
       <c r="G47" t="n">
-        <v>348.3333333333333</v>
+        <v>353.8166666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>347</v>
       </c>
       <c r="C48" t="n">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D48" t="n">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E48" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F48" t="n">
-        <v>7507.4675</v>
+        <v>917.966</v>
       </c>
       <c r="G48" t="n">
-        <v>348.6666666666667</v>
+        <v>353.6333333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C49" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D49" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E49" t="n">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F49" t="n">
-        <v>3763</v>
+        <v>7507.4675</v>
       </c>
       <c r="G49" t="n">
-        <v>349.3333333333333</v>
+        <v>353.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>350</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6057</v>
+        <v>3763</v>
       </c>
       <c r="G50" t="n">
-        <v>350.3333333333333</v>
+        <v>353.3333333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C51" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D51" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E51" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F51" t="n">
-        <v>2690.3747</v>
+        <v>0.6057</v>
       </c>
       <c r="G51" t="n">
-        <v>349.3333333333333</v>
+        <v>353.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C52" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D52" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E52" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F52" t="n">
-        <v>1091.5681</v>
+        <v>2690.3747</v>
       </c>
       <c r="G52" t="n">
-        <v>349.3333333333333</v>
+        <v>353.0333333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>350</v>
       </c>
       <c r="F53" t="n">
-        <v>161.3377</v>
+        <v>1091.5681</v>
       </c>
       <c r="G53" t="n">
-        <v>349.3333333333333</v>
+        <v>352.9333333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>350</v>
       </c>
       <c r="F54" t="n">
-        <v>980.1223</v>
+        <v>161.3377</v>
       </c>
       <c r="G54" t="n">
-        <v>350</v>
+        <v>352.7833333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>350</v>
       </c>
       <c r="F55" t="n">
-        <v>94.56610000000001</v>
+        <v>980.1223</v>
       </c>
       <c r="G55" t="n">
-        <v>350</v>
+        <v>352.6666666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>350</v>
       </c>
       <c r="F56" t="n">
-        <v>11.8745</v>
+        <v>94.56610000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>350</v>
+        <v>352.5666666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C57" t="n">
         <v>350</v>
       </c>
       <c r="D57" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E57" t="n">
         <v>350</v>
       </c>
       <c r="F57" t="n">
-        <v>237.971</v>
+        <v>11.8745</v>
       </c>
       <c r="G57" t="n">
-        <v>350</v>
+        <v>352.4666666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         <v>351</v>
       </c>
       <c r="C58" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D58" t="n">
         <v>351</v>
       </c>
       <c r="E58" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F58" t="n">
-        <v>26.9157</v>
+        <v>237.971</v>
       </c>
       <c r="G58" t="n">
-        <v>350.3333333333333</v>
+        <v>352.3666666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C59" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D59" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E59" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F59" t="n">
-        <v>4500</v>
+        <v>26.9157</v>
       </c>
       <c r="G59" t="n">
-        <v>350.3333333333333</v>
+        <v>352.2833333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>350</v>
       </c>
       <c r="C60" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D60" t="n">
         <v>350</v>
       </c>
       <c r="E60" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F60" t="n">
-        <v>2621.9131</v>
+        <v>4500</v>
       </c>
       <c r="G60" t="n">
-        <v>349.6666666666667</v>
+        <v>352.1833333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C61" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D61" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E61" t="n">
         <v>348</v>
       </c>
       <c r="F61" t="n">
-        <v>1205.7187</v>
+        <v>2621.9131</v>
       </c>
       <c r="G61" t="n">
-        <v>349</v>
+        <v>352.0666666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C62" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D62" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E62" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F62" t="n">
-        <v>423.681</v>
+        <v>1205.7187</v>
       </c>
       <c r="G62" t="n">
-        <v>349</v>
+        <v>351.9666666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C63" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D63" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E63" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F63" t="n">
-        <v>100.8984</v>
+        <v>423.681</v>
       </c>
       <c r="G63" t="n">
-        <v>350</v>
+        <v>351.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C64" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D64" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E64" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F64" t="n">
-        <v>166</v>
+        <v>100.8984</v>
       </c>
       <c r="G64" t="n">
-        <v>350</v>
+        <v>351.85</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C65" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D65" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E65" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F65" t="n">
-        <v>2900</v>
+        <v>166</v>
       </c>
       <c r="G65" t="n">
-        <v>349.3333333333333</v>
+        <v>351.7666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C66" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D66" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E66" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F66" t="n">
-        <v>1877.0983</v>
+        <v>2900</v>
       </c>
       <c r="G66" t="n">
-        <v>348.6666666666667</v>
+        <v>351.6166666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C67" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D67" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E67" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F67" t="n">
-        <v>2949.5106</v>
+        <v>1877.0983</v>
       </c>
       <c r="G67" t="n">
-        <v>349</v>
+        <v>351.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C68" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D68" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E68" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F68" t="n">
-        <v>13373.0495</v>
+        <v>2949.5106</v>
       </c>
       <c r="G68" t="n">
-        <v>350</v>
+        <v>351.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C69" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D69" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E69" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F69" t="n">
-        <v>2000</v>
+        <v>13373.0495</v>
       </c>
       <c r="G69" t="n">
-        <v>350.3333333333333</v>
+        <v>351.3166666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C70" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D70" t="n">
         <v>350</v>
       </c>
       <c r="E70" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F70" t="n">
-        <v>3164.5622</v>
+        <v>2000</v>
       </c>
       <c r="G70" t="n">
-        <v>350</v>
+        <v>351.2333333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C71" t="n">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D71" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E71" t="n">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F71" t="n">
-        <v>6035.1881</v>
+        <v>3164.5622</v>
       </c>
       <c r="G71" t="n">
-        <v>350</v>
+        <v>351.1333333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C72" t="n">
         <v>351</v>
@@ -2895,10 +2895,10 @@
         <v>349</v>
       </c>
       <c r="F72" t="n">
-        <v>1230.6416</v>
+        <v>6035.1881</v>
       </c>
       <c r="G72" t="n">
-        <v>350.3333333333333</v>
+        <v>351.0666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2927,10 +2927,10 @@
         <v>351</v>
       </c>
       <c r="E73" t="n">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F73" t="n">
-        <v>2819.834</v>
+        <v>1230.6416</v>
       </c>
       <c r="G73" t="n">
         <v>351</v>
@@ -2956,19 +2956,19 @@
         <v>351</v>
       </c>
       <c r="C74" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D74" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E74" t="n">
         <v>351</v>
       </c>
       <c r="F74" t="n">
-        <v>11708.7378</v>
+        <v>2819.834</v>
       </c>
       <c r="G74" t="n">
-        <v>351.6666666666667</v>
+        <v>350.95</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C75" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D75" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E75" t="n">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F75" t="n">
-        <v>1340</v>
+        <v>11708.7378</v>
       </c>
       <c r="G75" t="n">
-        <v>352.6666666666667</v>
+        <v>350.8833333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C76" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D76" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E76" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F76" t="n">
-        <v>4953</v>
+        <v>1340</v>
       </c>
       <c r="G76" t="n">
-        <v>353</v>
+        <v>350.8333333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3061,19 +3061,19 @@
         <v>353</v>
       </c>
       <c r="C77" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D77" t="n">
         <v>353</v>
       </c>
       <c r="E77" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F77" t="n">
-        <v>56.7341</v>
+        <v>4953</v>
       </c>
       <c r="G77" t="n">
-        <v>353</v>
+        <v>350.75</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C78" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D78" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E78" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F78" t="n">
-        <v>2700</v>
+        <v>56.7341</v>
       </c>
       <c r="G78" t="n">
-        <v>352.3333333333333</v>
+        <v>350.6833333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3131,19 +3131,19 @@
         <v>352</v>
       </c>
       <c r="C79" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D79" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E79" t="n">
         <v>352</v>
       </c>
       <c r="F79" t="n">
-        <v>6140.011</v>
+        <v>2700</v>
       </c>
       <c r="G79" t="n">
-        <v>352.6666666666667</v>
+        <v>350.6166666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C80" t="n">
         <v>353</v>
       </c>
       <c r="D80" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E80" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F80" t="n">
-        <v>2674.6336</v>
+        <v>6140.011</v>
       </c>
       <c r="G80" t="n">
-        <v>352.6666666666667</v>
+        <v>350.5833333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C81" t="n">
         <v>353</v>
       </c>
       <c r="D81" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E81" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F81" t="n">
-        <v>5417.1831</v>
+        <v>2674.6336</v>
       </c>
       <c r="G81" t="n">
-        <v>353</v>
+        <v>350.55</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C82" t="n">
+        <v>353</v>
+      </c>
+      <c r="D82" t="n">
+        <v>353</v>
+      </c>
+      <c r="E82" t="n">
         <v>352</v>
       </c>
-      <c r="D82" t="n">
-        <v>352</v>
-      </c>
-      <c r="E82" t="n">
-        <v>350</v>
-      </c>
       <c r="F82" t="n">
-        <v>2179.8277</v>
+        <v>5417.1831</v>
       </c>
       <c r="G82" t="n">
-        <v>352.6666666666667</v>
+        <v>350.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C83" t="n">
         <v>352</v>
@@ -3277,13 +3277,13 @@
         <v>352</v>
       </c>
       <c r="E83" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F83" t="n">
-        <v>2261.2937</v>
+        <v>2179.8277</v>
       </c>
       <c r="G83" t="n">
-        <v>352.3333333333333</v>
+        <v>350.4333333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C84" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D84" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E84" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F84" t="n">
-        <v>672.1783</v>
+        <v>2261.2937</v>
       </c>
       <c r="G84" t="n">
-        <v>352.3333333333333</v>
+        <v>350.4666666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C85" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D85" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E85" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F85" t="n">
-        <v>99.75</v>
+        <v>672.1783</v>
       </c>
       <c r="G85" t="n">
-        <v>352</v>
+        <v>350.4833333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3385,10 @@
         <v>351</v>
       </c>
       <c r="F86" t="n">
-        <v>1502.5681</v>
+        <v>99.75</v>
       </c>
       <c r="G86" t="n">
-        <v>351.6666666666667</v>
+        <v>350.4833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C87" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D87" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E87" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>1502.5681</v>
       </c>
       <c r="G87" t="n">
-        <v>351.6666666666667</v>
+        <v>350.45</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>353</v>
       </c>
       <c r="F88" t="n">
-        <v>516.5325</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>352.3333333333333</v>
+        <v>350.4166666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>353</v>
       </c>
       <c r="F89" t="n">
-        <v>1775.5155</v>
+        <v>516.5325</v>
       </c>
       <c r="G89" t="n">
-        <v>353</v>
+        <v>350.45</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C90" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D90" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E90" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F90" t="n">
-        <v>91.1134</v>
+        <v>1775.5155</v>
       </c>
       <c r="G90" t="n">
-        <v>352.6666666666667</v>
+        <v>350.5333333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>352</v>
       </c>
       <c r="F91" t="n">
-        <v>685.8866</v>
+        <v>91.1134</v>
       </c>
       <c r="G91" t="n">
-        <v>352.3333333333333</v>
+        <v>350.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C92" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D92" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E92" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F92" t="n">
-        <v>9967.119000000001</v>
+        <v>685.8866</v>
       </c>
       <c r="G92" t="n">
-        <v>351.3333333333333</v>
+        <v>350.55</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>350</v>
       </c>
       <c r="F93" t="n">
-        <v>6991.1456</v>
+        <v>9967.119000000001</v>
       </c>
       <c r="G93" t="n">
-        <v>350.6666666666667</v>
+        <v>350.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C94" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D94" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E94" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F94" t="n">
-        <v>7718</v>
+        <v>6991.1456</v>
       </c>
       <c r="G94" t="n">
-        <v>349.6666666666667</v>
+        <v>350.4833333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3700,10 @@
         <v>349</v>
       </c>
       <c r="F95" t="n">
-        <v>1594.5244</v>
+        <v>7718</v>
       </c>
       <c r="G95" t="n">
-        <v>349.3333333333333</v>
+        <v>350.4666666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>349</v>
       </c>
       <c r="F96" t="n">
-        <v>28.2051</v>
+        <v>1594.5244</v>
       </c>
       <c r="G96" t="n">
-        <v>349</v>
+        <v>350.4333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C97" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D97" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E97" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F97" t="n">
-        <v>2353.9436</v>
+        <v>28.2051</v>
       </c>
       <c r="G97" t="n">
-        <v>348.6666666666667</v>
+        <v>350.45</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>348</v>
       </c>
       <c r="C98" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D98" t="n">
         <v>348</v>
       </c>
       <c r="E98" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F98" t="n">
-        <v>13694.1512</v>
+        <v>2353.9436</v>
       </c>
       <c r="G98" t="n">
-        <v>348</v>
+        <v>350.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3831,19 +3831,19 @@
         <v>348</v>
       </c>
       <c r="C99" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D99" t="n">
         <v>348</v>
       </c>
       <c r="E99" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F99" t="n">
-        <v>11.6872</v>
+        <v>13694.1512</v>
       </c>
       <c r="G99" t="n">
-        <v>347.6666666666667</v>
+        <v>350.3666666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>348</v>
       </c>
       <c r="C100" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D100" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E100" t="n">
         <v>348</v>
       </c>
       <c r="F100" t="n">
-        <v>141.8773</v>
+        <v>11.6872</v>
       </c>
       <c r="G100" t="n">
-        <v>348</v>
+        <v>350.3166666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C101" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D101" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E101" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>141.8773</v>
       </c>
       <c r="G101" t="n">
-        <v>349</v>
+        <v>350.3666666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>350</v>
       </c>
       <c r="F102" t="n">
-        <v>324.999</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>349.6666666666667</v>
+        <v>350.35</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C103" t="n">
         <v>350</v>
@@ -3977,13 +3977,13 @@
         <v>350</v>
       </c>
       <c r="E103" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F103" t="n">
-        <v>2978.4625</v>
+        <v>324.999</v>
       </c>
       <c r="G103" t="n">
-        <v>350</v>
+        <v>350.3666666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C104" t="n">
         <v>350</v>
@@ -4012,13 +4012,13 @@
         <v>350</v>
       </c>
       <c r="E104" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F104" t="n">
-        <v>276.9999</v>
+        <v>2978.4625</v>
       </c>
       <c r="G104" t="n">
-        <v>350</v>
+        <v>350.3833333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>350</v>
       </c>
       <c r="F105" t="n">
-        <v>2124.1464</v>
+        <v>276.9999</v>
       </c>
       <c r="G105" t="n">
-        <v>350</v>
+        <v>350.4333333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C106" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D106" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E106" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F106" t="n">
-        <v>1581.864</v>
+        <v>2124.1464</v>
       </c>
       <c r="G106" t="n">
-        <v>349.6666666666667</v>
+        <v>350.4333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C107" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D107" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E107" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F107" t="n">
-        <v>51.5971</v>
+        <v>1581.864</v>
       </c>
       <c r="G107" t="n">
-        <v>349.6666666666667</v>
+        <v>350.45</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4146,19 +4146,19 @@
         <v>350</v>
       </c>
       <c r="C108" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D108" t="n">
         <v>350</v>
       </c>
       <c r="E108" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F108" t="n">
-        <v>2741.9634</v>
+        <v>51.5971</v>
       </c>
       <c r="G108" t="n">
-        <v>349.3333333333333</v>
+        <v>350.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C109" t="n">
         <v>349</v>
       </c>
       <c r="D109" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E109" t="n">
         <v>349</v>
       </c>
       <c r="F109" t="n">
-        <v>147.852</v>
+        <v>2741.9634</v>
       </c>
       <c r="G109" t="n">
-        <v>349.3333333333333</v>
+        <v>350.4666666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C110" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D110" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E110" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F110" t="n">
-        <v>246.0116</v>
+        <v>147.852</v>
       </c>
       <c r="G110" t="n">
-        <v>348.6666666666667</v>
+        <v>350.45</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C111" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D111" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E111" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F111" t="n">
-        <v>1188.3514</v>
+        <v>246.0116</v>
       </c>
       <c r="G111" t="n">
-        <v>349</v>
+        <v>350.4166666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C112" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D112" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E112" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F112" t="n">
-        <v>13163.0495</v>
+        <v>1188.3514</v>
       </c>
       <c r="G112" t="n">
-        <v>348.6666666666667</v>
+        <v>350.45</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C113" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D113" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E113" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F113" t="n">
-        <v>8501.4203</v>
+        <v>13163.0495</v>
       </c>
       <c r="G113" t="n">
-        <v>348</v>
+        <v>350.4166666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C114" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D114" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E114" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F114" t="n">
-        <v>29.0807</v>
+        <v>8501.4203</v>
       </c>
       <c r="G114" t="n">
-        <v>347.3333333333333</v>
+        <v>350.35</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4400,10 @@
         <v>348</v>
       </c>
       <c r="F115" t="n">
-        <v>2000</v>
+        <v>29.0807</v>
       </c>
       <c r="G115" t="n">
-        <v>347.3333333333333</v>
+        <v>350.3166666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4426,28 +4426,32 @@
         <v>348</v>
       </c>
       <c r="C116" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D116" t="n">
         <v>348</v>
       </c>
       <c r="E116" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F116" t="n">
-        <v>10414.0909</v>
+        <v>2000</v>
       </c>
       <c r="G116" t="n">
-        <v>347.6666666666667</v>
+        <v>350.2833333333334</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>348</v>
+      </c>
+      <c r="K116" t="n">
+        <v>348</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
@@ -4458,22 +4462,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C117" t="n">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D117" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E117" t="n">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F117" t="n">
-        <v>117.0505</v>
+        <v>10414.0909</v>
       </c>
       <c r="G117" t="n">
-        <v>348</v>
+        <v>350.2333333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4482,8 +4486,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>348</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4493,22 +4503,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C118" t="n">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D118" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E118" t="n">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F118" t="n">
-        <v>1.18</v>
+        <v>117.0505</v>
       </c>
       <c r="G118" t="n">
-        <v>349.3333333333333</v>
+        <v>350.2166666666666</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -4517,12 +4527,16 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K118" t="n">
-        <v>349</v>
-      </c>
-      <c r="L118" t="inlineStr"/>
+        <v>348</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4532,38 +4546,36 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C119" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D119" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E119" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F119" t="n">
-        <v>300.8341</v>
+        <v>1.18</v>
       </c>
       <c r="G119" t="n">
-        <v>350.6666666666667</v>
+        <v>350.2333333333333</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>352</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M119" t="n">
@@ -4575,7 +4587,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C120" t="n">
         <v>351</v>
@@ -4584,25 +4596,23 @@
         <v>351</v>
       </c>
       <c r="E120" t="n">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F120" t="n">
-        <v>240</v>
+        <v>300.8341</v>
       </c>
       <c r="G120" t="n">
-        <v>351.3333333333333</v>
+        <v>350.25</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>351</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4618,34 +4628,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C121" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D121" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E121" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F121" t="n">
-        <v>233.8566</v>
+        <v>240</v>
       </c>
       <c r="G121" t="n">
-        <v>350</v>
+        <v>350.3</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>351</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -4664,19 +4672,19 @@
         <v>350</v>
       </c>
       <c r="C122" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D122" t="n">
         <v>350</v>
       </c>
       <c r="E122" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F122" t="n">
-        <v>27.734</v>
+        <v>233.8566</v>
       </c>
       <c r="G122" t="n">
-        <v>349.6666666666667</v>
+        <v>350.2833333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4686,7 +4694,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -4705,19 +4713,19 @@
         <v>350</v>
       </c>
       <c r="C123" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D123" t="n">
         <v>350</v>
       </c>
       <c r="E123" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F123" t="n">
-        <v>2747.6249</v>
+        <v>27.734</v>
       </c>
       <c r="G123" t="n">
-        <v>349</v>
+        <v>350.2833333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4727,7 +4735,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -4743,22 +4751,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C124" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D124" t="n">
         <v>350</v>
       </c>
       <c r="E124" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F124" t="n">
-        <v>902.6085</v>
+        <v>2747.6249</v>
       </c>
       <c r="G124" t="n">
-        <v>349.6666666666667</v>
+        <v>350.25</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4768,7 +4776,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -4784,22 +4792,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C125" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D125" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E125" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F125" t="n">
-        <v>2110.71</v>
+        <v>902.6085</v>
       </c>
       <c r="G125" t="n">
-        <v>349</v>
+        <v>350.2666666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4809,7 +4817,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -4828,19 +4836,19 @@
         <v>348</v>
       </c>
       <c r="C126" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D126" t="n">
         <v>348</v>
       </c>
       <c r="E126" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F126" t="n">
-        <v>870</v>
+        <v>2110.71</v>
       </c>
       <c r="G126" t="n">
-        <v>348.3333333333333</v>
+        <v>350.2666666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4850,7 +4858,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -4866,22 +4874,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C127" t="n">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D127" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E127" t="n">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F127" t="n">
-        <v>106.8062</v>
+        <v>870</v>
       </c>
       <c r="G127" t="n">
-        <v>348.3333333333333</v>
+        <v>350.2333333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4891,7 +4899,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -4910,19 +4918,19 @@
         <v>349</v>
       </c>
       <c r="C128" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D128" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E128" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F128" t="n">
-        <v>2840.8905</v>
+        <v>106.8062</v>
       </c>
       <c r="G128" t="n">
-        <v>348</v>
+        <v>350.2333333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4932,7 +4940,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -4948,22 +4956,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>349</v>
+      </c>
+      <c r="C129" t="n">
         <v>347</v>
       </c>
-      <c r="C129" t="n">
-        <v>346</v>
-      </c>
       <c r="D129" t="n">
+        <v>349</v>
+      </c>
+      <c r="E129" t="n">
         <v>347</v>
       </c>
-      <c r="E129" t="n">
-        <v>346</v>
-      </c>
       <c r="F129" t="n">
-        <v>6803.6455</v>
+        <v>2840.8905</v>
       </c>
       <c r="G129" t="n">
-        <v>347.6666666666667</v>
+        <v>350.1666666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4973,7 +4981,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -4989,22 +4997,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C130" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D130" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E130" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F130" t="n">
-        <v>335.4639</v>
+        <v>6803.6455</v>
       </c>
       <c r="G130" t="n">
-        <v>347</v>
+        <v>350.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5014,7 +5022,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5030,22 +5038,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C131" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D131" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E131" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F131" t="n">
-        <v>1720</v>
+        <v>335.4639</v>
       </c>
       <c r="G131" t="n">
-        <v>347.6666666666667</v>
+        <v>350.0833333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5055,7 +5063,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5071,22 +5079,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C132" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D132" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E132" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F132" t="n">
-        <v>28.3491</v>
+        <v>1720</v>
       </c>
       <c r="G132" t="n">
-        <v>348.3333333333333</v>
+        <v>350.05</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5096,7 +5104,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5112,22 +5120,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C133" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D133" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E133" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>28.3491</v>
       </c>
       <c r="G133" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5137,7 +5145,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5153,22 +5161,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C134" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D134" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E134" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>349</v>
+        <v>349.9833333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5178,7 +5186,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5194,22 +5202,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C135" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D135" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E135" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F135" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>349</v>
+        <v>349.9166666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5219,7 +5227,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5235,22 +5243,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C136" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D136" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E136" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G136" t="n">
-        <v>348.6666666666667</v>
+        <v>349.8166666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5260,7 +5268,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5276,22 +5284,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C137" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D137" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E137" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F137" t="n">
-        <v>690.3173</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>348.3333333333333</v>
+        <v>349.7666666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5301,7 +5309,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5320,19 +5328,19 @@
         <v>348</v>
       </c>
       <c r="C138" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D138" t="n">
         <v>348</v>
       </c>
       <c r="E138" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F138" t="n">
-        <v>18810.7987</v>
+        <v>690.3173</v>
       </c>
       <c r="G138" t="n">
-        <v>348</v>
+        <v>349.6833333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5342,7 +5350,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5358,22 +5366,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>348</v>
+      </c>
+      <c r="C139" t="n">
         <v>347</v>
       </c>
-      <c r="C139" t="n">
-        <v>350</v>
-      </c>
       <c r="D139" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E139" t="n">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F139" t="n">
-        <v>3329.4482</v>
+        <v>18810.7987</v>
       </c>
       <c r="G139" t="n">
-        <v>348.3333333333333</v>
+        <v>349.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5383,7 +5391,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5399,22 +5407,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C140" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D140" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E140" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F140" t="n">
-        <v>1303.5637</v>
+        <v>3329.4482</v>
       </c>
       <c r="G140" t="n">
-        <v>348.3333333333333</v>
+        <v>349.55</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5424,7 +5432,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5440,22 +5448,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C141" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D141" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E141" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F141" t="n">
-        <v>1940.7418</v>
+        <v>1303.5637</v>
       </c>
       <c r="G141" t="n">
-        <v>349</v>
+        <v>349.4666666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5465,7 +5473,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5481,22 +5489,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C142" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D142" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E142" t="n">
         <v>346</v>
       </c>
       <c r="F142" t="n">
-        <v>12640.4089</v>
+        <v>1940.7418</v>
       </c>
       <c r="G142" t="n">
-        <v>347.6666666666667</v>
+        <v>349.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5506,7 +5514,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5522,22 +5530,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C143" t="n">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D143" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E143" t="n">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F143" t="n">
-        <v>11</v>
+        <v>12640.4089</v>
       </c>
       <c r="G143" t="n">
-        <v>348.3333333333333</v>
+        <v>349.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5547,7 +5555,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5575,10 +5583,10 @@
         <v>350</v>
       </c>
       <c r="F144" t="n">
-        <v>161.5228</v>
+        <v>11</v>
       </c>
       <c r="G144" t="n">
-        <v>348.6666666666667</v>
+        <v>349.2666666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5588,7 +5596,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5604,22 +5612,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C145" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D145" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E145" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F145" t="n">
-        <v>500</v>
+        <v>161.5228</v>
       </c>
       <c r="G145" t="n">
-        <v>349.6666666666667</v>
+        <v>349.2166666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5629,7 +5637,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5645,22 +5653,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C146" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D146" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E146" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G146" t="n">
-        <v>349.6666666666667</v>
+        <v>349.1833333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5670,7 +5678,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5686,22 +5694,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C147" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D147" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E147" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F147" t="n">
-        <v>174.2091</v>
+        <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>349.3333333333333</v>
+        <v>349.1666666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5711,7 +5719,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5739,10 +5747,10 @@
         <v>349</v>
       </c>
       <c r="F148" t="n">
-        <v>546.9999</v>
+        <v>174.2091</v>
       </c>
       <c r="G148" t="n">
-        <v>349.3333333333333</v>
+        <v>349.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5752,7 +5760,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5780,10 +5788,10 @@
         <v>349</v>
       </c>
       <c r="F149" t="n">
-        <v>286.5329</v>
+        <v>546.9999</v>
       </c>
       <c r="G149" t="n">
-        <v>349</v>
+        <v>349.0333333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5793,7 +5801,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5809,22 +5817,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C150" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D150" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E150" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F150" t="n">
-        <v>2600</v>
+        <v>286.5329</v>
       </c>
       <c r="G150" t="n">
-        <v>348.6666666666667</v>
+        <v>348.9666666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5834,7 +5842,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -5862,10 +5870,10 @@
         <v>348</v>
       </c>
       <c r="F151" t="n">
-        <v>9122.578799999999</v>
+        <v>2600</v>
       </c>
       <c r="G151" t="n">
-        <v>348.3333333333333</v>
+        <v>348.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5875,7 +5883,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -5903,10 +5911,10 @@
         <v>348</v>
       </c>
       <c r="F152" t="n">
-        <v>289.8474</v>
+        <v>9122.578799999999</v>
       </c>
       <c r="G152" t="n">
-        <v>348</v>
+        <v>348.8333333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5916,7 +5924,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -5944,10 +5952,10 @@
         <v>348</v>
       </c>
       <c r="F153" t="n">
-        <v>564.73</v>
+        <v>289.8474</v>
       </c>
       <c r="G153" t="n">
-        <v>348</v>
+        <v>348.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5957,7 +5965,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -5985,10 +5993,10 @@
         <v>348</v>
       </c>
       <c r="F154" t="n">
-        <v>2556.2881</v>
+        <v>564.73</v>
       </c>
       <c r="G154" t="n">
-        <v>348</v>
+        <v>348.7666666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5998,7 +6006,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6026,10 +6034,10 @@
         <v>348</v>
       </c>
       <c r="F155" t="n">
-        <v>731.4049</v>
+        <v>2556.2881</v>
       </c>
       <c r="G155" t="n">
-        <v>348</v>
+        <v>348.75</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6039,7 +6047,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6055,22 +6063,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C156" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D156" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E156" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F156" t="n">
-        <v>11147.466</v>
+        <v>731.4049</v>
       </c>
       <c r="G156" t="n">
-        <v>347.3333333333333</v>
+        <v>348.7333333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6080,7 +6088,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6096,22 +6104,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C157" t="n">
         <v>346</v>
       </c>
       <c r="D157" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E157" t="n">
         <v>346</v>
       </c>
       <c r="F157" t="n">
-        <v>211.608</v>
+        <v>11147.466</v>
       </c>
       <c r="G157" t="n">
-        <v>346.6666666666667</v>
+        <v>348.6833333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6121,7 +6129,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6137,22 +6145,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C158" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D158" t="n">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E158" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F158" t="n">
-        <v>320.5386</v>
+        <v>211.608</v>
       </c>
       <c r="G158" t="n">
-        <v>346.6666666666667</v>
+        <v>348.65</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6162,7 +6170,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6178,22 +6186,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C159" t="n">
         <v>348</v>
       </c>
       <c r="D159" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E159" t="n">
         <v>348</v>
       </c>
       <c r="F159" t="n">
-        <v>651.2386</v>
+        <v>320.5386</v>
       </c>
       <c r="G159" t="n">
-        <v>347.3333333333333</v>
+        <v>348.6666666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6203,7 +6211,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6219,22 +6227,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C160" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D160" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E160" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>651.2386</v>
       </c>
       <c r="G160" t="n">
-        <v>348.3333333333333</v>
+        <v>348.6666666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6244,7 +6252,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6260,22 +6268,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C161" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D161" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E161" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F161" t="n">
-        <v>5707.2256</v>
+        <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>348</v>
+        <v>348.6666666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6285,7 +6293,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6301,22 +6309,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C162" t="n">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D162" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E162" t="n">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F162" t="n">
-        <v>6</v>
+        <v>5707.2256</v>
       </c>
       <c r="G162" t="n">
-        <v>348.3333333333333</v>
+        <v>348.6166666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6326,7 +6334,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6342,22 +6350,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C163" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D163" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E163" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F163" t="n">
-        <v>4683.58</v>
+        <v>6</v>
       </c>
       <c r="G163" t="n">
-        <v>347.6666666666667</v>
+        <v>348.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6367,7 +6375,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6383,22 +6391,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>348</v>
+      </c>
+      <c r="C164" t="n">
         <v>347</v>
       </c>
-      <c r="C164" t="n">
-        <v>346</v>
-      </c>
       <c r="D164" t="n">
+        <v>348</v>
+      </c>
+      <c r="E164" t="n">
         <v>347</v>
       </c>
-      <c r="E164" t="n">
-        <v>346</v>
-      </c>
       <c r="F164" t="n">
-        <v>10202.5097</v>
+        <v>4683.58</v>
       </c>
       <c r="G164" t="n">
-        <v>347.3333333333333</v>
+        <v>348.55</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6408,7 +6416,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6424,22 +6432,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C165" t="n">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D165" t="n">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E165" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F165" t="n">
-        <v>348.3381</v>
+        <v>10202.5097</v>
       </c>
       <c r="G165" t="n">
-        <v>347.3333333333333</v>
+        <v>348.4833333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6449,7 +6457,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6465,7 +6473,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C166" t="n">
         <v>349</v>
@@ -6474,13 +6482,13 @@
         <v>349</v>
       </c>
       <c r="E166" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F166" t="n">
-        <v>2961.1957</v>
+        <v>348.3381</v>
       </c>
       <c r="G166" t="n">
-        <v>348</v>
+        <v>348.4666666666666</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6490,7 +6498,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6506,22 +6514,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C167" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D167" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E167" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F167" t="n">
-        <v>525</v>
+        <v>2961.1957</v>
       </c>
       <c r="G167" t="n">
-        <v>349.3333333333333</v>
+        <v>348.4666666666666</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6531,7 +6539,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6559,10 +6567,10 @@
         <v>350</v>
       </c>
       <c r="F168" t="n">
-        <v>973</v>
+        <v>525</v>
       </c>
       <c r="G168" t="n">
-        <v>349.6666666666667</v>
+        <v>348.4666666666666</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6572,7 +6580,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6600,10 +6608,10 @@
         <v>350</v>
       </c>
       <c r="F169" t="n">
-        <v>54.6175</v>
+        <v>973</v>
       </c>
       <c r="G169" t="n">
-        <v>350</v>
+        <v>348.4833333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6613,7 +6621,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6629,22 +6637,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C170" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D170" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E170" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F170" t="n">
-        <v>28.5913</v>
+        <v>54.6175</v>
       </c>
       <c r="G170" t="n">
-        <v>349.6666666666667</v>
+        <v>348.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6654,7 +6662,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6670,22 +6678,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C171" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D171" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E171" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F171" t="n">
-        <v>474.2145</v>
+        <v>28.5913</v>
       </c>
       <c r="G171" t="n">
-        <v>349.6666666666667</v>
+        <v>348.5166666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6695,7 +6703,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6723,10 +6731,10 @@
         <v>350</v>
       </c>
       <c r="F172" t="n">
-        <v>113.0297</v>
+        <v>474.2145</v>
       </c>
       <c r="G172" t="n">
-        <v>349.6666666666667</v>
+        <v>348.5166666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6736,7 +6744,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6764,10 +6772,10 @@
         <v>350</v>
       </c>
       <c r="F173" t="n">
-        <v>651.3922</v>
+        <v>113.0297</v>
       </c>
       <c r="G173" t="n">
-        <v>350</v>
+        <v>348.55</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6777,7 +6785,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6805,10 +6813,10 @@
         <v>350</v>
       </c>
       <c r="F174" t="n">
-        <v>77.1669</v>
+        <v>651.3922</v>
       </c>
       <c r="G174" t="n">
-        <v>350</v>
+        <v>348.6166666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6818,7 +6826,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6834,22 +6842,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C175" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D175" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E175" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F175" t="n">
-        <v>342.7948</v>
+        <v>77.1669</v>
       </c>
       <c r="G175" t="n">
-        <v>350.3333333333333</v>
+        <v>348.65</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6859,7 +6867,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -6887,10 +6895,10 @@
         <v>351</v>
       </c>
       <c r="F176" t="n">
-        <v>284.0113</v>
+        <v>342.7948</v>
       </c>
       <c r="G176" t="n">
-        <v>350.6666666666667</v>
+        <v>348.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6900,7 +6908,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -6916,7 +6924,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C177" t="n">
         <v>351</v>
@@ -6925,13 +6933,13 @@
         <v>351</v>
       </c>
       <c r="E177" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F177" t="n">
-        <v>3730.5662</v>
+        <v>284.0113</v>
       </c>
       <c r="G177" t="n">
-        <v>351</v>
+        <v>348.7666666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6941,7 +6949,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -6969,10 +6977,10 @@
         <v>350</v>
       </c>
       <c r="F178" t="n">
-        <v>105.9705</v>
+        <v>3730.5662</v>
       </c>
       <c r="G178" t="n">
-        <v>351</v>
+        <v>348.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6982,7 +6990,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -7001,19 +7009,19 @@
         <v>350</v>
       </c>
       <c r="C179" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D179" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E179" t="n">
         <v>350</v>
       </c>
       <c r="F179" t="n">
-        <v>2670</v>
+        <v>105.9705</v>
       </c>
       <c r="G179" t="n">
-        <v>350.6666666666667</v>
+        <v>348.7833333333334</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7023,7 +7031,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7051,10 +7059,10 @@
         <v>350</v>
       </c>
       <c r="F180" t="n">
-        <v>579.5096</v>
+        <v>2670</v>
       </c>
       <c r="G180" t="n">
-        <v>350.3333333333333</v>
+        <v>348.7666666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7064,7 +7072,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7092,10 +7100,10 @@
         <v>350</v>
       </c>
       <c r="F181" t="n">
-        <v>4936.1617</v>
+        <v>579.5096</v>
       </c>
       <c r="G181" t="n">
-        <v>350</v>
+        <v>348.75</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7105,7 +7113,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7121,22 +7129,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C182" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D182" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E182" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>4936.1617</v>
       </c>
       <c r="G182" t="n">
-        <v>350.3333333333333</v>
+        <v>348.7833333333334</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7146,7 +7154,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7174,10 +7182,10 @@
         <v>351</v>
       </c>
       <c r="F183" t="n">
-        <v>2202.9866</v>
+        <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>350.6666666666667</v>
+        <v>348.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7187,7 +7195,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7215,10 +7223,10 @@
         <v>351</v>
       </c>
       <c r="F184" t="n">
-        <v>6.8156</v>
+        <v>2202.9866</v>
       </c>
       <c r="G184" t="n">
-        <v>351</v>
+        <v>348.8333333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7228,7 +7236,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7244,22 +7252,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C185" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D185" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E185" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F185" t="n">
-        <v>3207.1321</v>
+        <v>6.8156</v>
       </c>
       <c r="G185" t="n">
-        <v>350.3333333333333</v>
+        <v>348.85</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7269,7 +7277,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7288,19 +7296,19 @@
         <v>350</v>
       </c>
       <c r="C186" t="n">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D186" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E186" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F186" t="n">
-        <v>147.2495</v>
+        <v>3207.1321</v>
       </c>
       <c r="G186" t="n">
-        <v>350.3333333333333</v>
+        <v>348.8666666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7310,7 +7318,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7329,19 +7337,19 @@
         <v>350</v>
       </c>
       <c r="C187" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D187" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E187" t="n">
         <v>350</v>
       </c>
       <c r="F187" t="n">
-        <v>1.91</v>
+        <v>147.2495</v>
       </c>
       <c r="G187" t="n">
-        <v>350</v>
+        <v>348.9333333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7351,7 +7359,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7367,22 +7375,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C188" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D188" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E188" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F188" t="n">
-        <v>1</v>
+        <v>1.91</v>
       </c>
       <c r="G188" t="n">
-        <v>350.6666666666667</v>
+        <v>348.9333333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7392,7 +7400,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7420,10 +7428,10 @@
         <v>351</v>
       </c>
       <c r="F189" t="n">
-        <v>16.19</v>
+        <v>1</v>
       </c>
       <c r="G189" t="n">
-        <v>350.6666666666667</v>
+        <v>349</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7433,7 +7441,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7449,22 +7457,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C190" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D190" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E190" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F190" t="n">
-        <v>5769.1392</v>
+        <v>16.19</v>
       </c>
       <c r="G190" t="n">
-        <v>351.6666666666667</v>
+        <v>349.0833333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7474,7 +7482,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -7493,19 +7501,19 @@
         <v>352</v>
       </c>
       <c r="C191" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D191" t="n">
+        <v>353</v>
+      </c>
+      <c r="E191" t="n">
         <v>352</v>
       </c>
-      <c r="E191" t="n">
-        <v>351</v>
-      </c>
       <c r="F191" t="n">
-        <v>3747.6757</v>
+        <v>5769.1392</v>
       </c>
       <c r="G191" t="n">
-        <v>351.6666666666667</v>
+        <v>349.1666666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7515,7 +7523,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -7531,22 +7539,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C192" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D192" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E192" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F192" t="n">
-        <v>1</v>
+        <v>3747.6757</v>
       </c>
       <c r="G192" t="n">
-        <v>352.3333333333333</v>
+        <v>349.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7556,7 +7564,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -7572,22 +7580,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C193" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D193" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E193" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F193" t="n">
         <v>1</v>
       </c>
       <c r="G193" t="n">
-        <v>352</v>
+        <v>349.2833333333334</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7597,7 +7605,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -7613,22 +7621,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C194" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D194" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E194" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F194" t="n">
-        <v>4683.58</v>
+        <v>1</v>
       </c>
       <c r="G194" t="n">
-        <v>352</v>
+        <v>349.3166666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7638,7 +7646,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -7654,22 +7662,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C195" t="n">
         <v>351</v>
       </c>
       <c r="D195" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E195" t="n">
         <v>351</v>
       </c>
       <c r="F195" t="n">
-        <v>1292.8151</v>
+        <v>4683.58</v>
       </c>
       <c r="G195" t="n">
-        <v>351.3333333333333</v>
+        <v>349.35</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7679,7 +7687,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -7695,22 +7703,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C196" t="n">
         <v>351</v>
       </c>
       <c r="D196" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E196" t="n">
         <v>351</v>
       </c>
       <c r="F196" t="n">
-        <v>536.9433</v>
+        <v>1292.8151</v>
       </c>
       <c r="G196" t="n">
-        <v>351</v>
+        <v>349.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7720,7 +7728,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -7736,22 +7744,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C197" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D197" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E197" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F197" t="n">
-        <v>2350</v>
+        <v>536.9433</v>
       </c>
       <c r="G197" t="n">
-        <v>350.6666666666667</v>
+        <v>349.4333333333333</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7761,7 +7769,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -7777,22 +7785,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C198" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D198" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E198" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>2350</v>
       </c>
       <c r="G198" t="n">
-        <v>351</v>
+        <v>349.4666666666666</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7802,7 +7810,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -7830,10 +7838,10 @@
         <v>352</v>
       </c>
       <c r="F199" t="n">
-        <v>215.8452</v>
+        <v>1</v>
       </c>
       <c r="G199" t="n">
-        <v>351.3333333333333</v>
+        <v>349.55</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7843,7 +7851,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -7871,10 +7879,10 @@
         <v>352</v>
       </c>
       <c r="F200" t="n">
-        <v>1351.11</v>
+        <v>215.8452</v>
       </c>
       <c r="G200" t="n">
-        <v>352</v>
+        <v>349.5833333333333</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7884,7 +7892,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -7912,10 +7920,10 @@
         <v>352</v>
       </c>
       <c r="F201" t="n">
-        <v>1371.7118</v>
+        <v>1351.11</v>
       </c>
       <c r="G201" t="n">
-        <v>352</v>
+        <v>349.65</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7925,7 +7933,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -7941,22 +7949,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C202" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D202" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E202" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F202" t="n">
-        <v>2289.5585</v>
+        <v>1371.7118</v>
       </c>
       <c r="G202" t="n">
-        <v>352.3333333333333</v>
+        <v>349.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7966,7 +7974,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -7982,22 +7990,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C203" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D203" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E203" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F203" t="n">
-        <v>20981.7865</v>
+        <v>2289.5585</v>
       </c>
       <c r="G203" t="n">
-        <v>353.6666666666667</v>
+        <v>349.8166666666667</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8007,7 +8015,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -8023,7 +8031,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C204" t="n">
         <v>356</v>
@@ -8032,13 +8040,13 @@
         <v>356</v>
       </c>
       <c r="E204" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F204" t="n">
-        <v>25281.1741</v>
+        <v>20981.7865</v>
       </c>
       <c r="G204" t="n">
-        <v>355</v>
+        <v>349.9166666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8048,7 +8056,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -8064,22 +8072,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C205" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D205" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E205" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F205" t="n">
-        <v>16500.0975</v>
+        <v>25281.1741</v>
       </c>
       <c r="G205" t="n">
-        <v>355.3333333333333</v>
+        <v>350.0166666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8089,7 +8097,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -8105,22 +8113,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
+        <v>357</v>
+      </c>
+      <c r="C206" t="n">
         <v>354</v>
       </c>
-      <c r="C206" t="n">
-        <v>356</v>
-      </c>
       <c r="D206" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E206" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F206" t="n">
-        <v>955.485</v>
+        <v>16500.0975</v>
       </c>
       <c r="G206" t="n">
-        <v>355.3333333333333</v>
+        <v>350.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8130,7 +8138,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -8138,7 +8146,7 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>1.015057306590258</v>
+        <v>1.012241379310345</v>
       </c>
     </row>
     <row r="207">
@@ -8146,7 +8154,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C207" t="n">
         <v>356</v>
@@ -8155,19 +8163,19 @@
         <v>356</v>
       </c>
       <c r="E207" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F207" t="n">
-        <v>960</v>
+        <v>955.485</v>
       </c>
       <c r="G207" t="n">
-        <v>355.3333333333333</v>
+        <v>350.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
@@ -8181,28 +8189,28 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C208" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D208" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E208" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F208" t="n">
-        <v>135.9722</v>
+        <v>960</v>
       </c>
       <c r="G208" t="n">
-        <v>355.6666666666667</v>
+        <v>350.3166666666667</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -8216,22 +8224,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C209" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D209" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E209" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F209" t="n">
-        <v>1.1</v>
+        <v>135.9722</v>
       </c>
       <c r="G209" t="n">
-        <v>355.6666666666667</v>
+        <v>350.4166666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8260,13 +8268,13 @@
         <v>356</v>
       </c>
       <c r="E210" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F210" t="n">
-        <v>2992.9941</v>
+        <v>1.1</v>
       </c>
       <c r="G210" t="n">
-        <v>355.6666666666667</v>
+        <v>350.5333333333334</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8286,22 +8294,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C211" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D211" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E211" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F211" t="n">
-        <v>269.9943</v>
+        <v>2992.9941</v>
       </c>
       <c r="G211" t="n">
-        <v>356.3333333333333</v>
+        <v>350.6666666666667</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8321,22 +8329,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C212" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D212" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E212" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F212" t="n">
-        <v>1414.1227</v>
+        <v>269.9943</v>
       </c>
       <c r="G212" t="n">
-        <v>356.3333333333333</v>
+        <v>350.8166666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8368,10 +8376,10 @@
         <v>356</v>
       </c>
       <c r="F213" t="n">
-        <v>6574.7265</v>
+        <v>1414.1227</v>
       </c>
       <c r="G213" t="n">
-        <v>356.3333333333333</v>
+        <v>350.95</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8394,19 +8402,19 @@
         <v>356</v>
       </c>
       <c r="C214" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D214" t="n">
         <v>356</v>
       </c>
       <c r="E214" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F214" t="n">
-        <v>253.0832</v>
+        <v>6574.7265</v>
       </c>
       <c r="G214" t="n">
-        <v>355.6666666666667</v>
+        <v>351.0833333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8426,22 +8434,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C215" t="n">
         <v>355</v>
       </c>
       <c r="D215" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E215" t="n">
         <v>355</v>
       </c>
       <c r="F215" t="n">
-        <v>50</v>
+        <v>253.0832</v>
       </c>
       <c r="G215" t="n">
-        <v>355.3333333333333</v>
+        <v>351.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8461,22 +8469,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C216" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D216" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E216" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F216" t="n">
-        <v>104.0421</v>
+        <v>50</v>
       </c>
       <c r="G216" t="n">
-        <v>355.3333333333333</v>
+        <v>351.3166666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8508,10 +8516,10 @@
         <v>356</v>
       </c>
       <c r="F217" t="n">
-        <v>3.5337</v>
+        <v>104.0421</v>
       </c>
       <c r="G217" t="n">
-        <v>355.6666666666667</v>
+        <v>351.4833333333333</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8531,22 +8539,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C218" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D218" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E218" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F218" t="n">
-        <v>2833.2957</v>
+        <v>3.5337</v>
       </c>
       <c r="G218" t="n">
-        <v>355.6666666666667</v>
+        <v>351.65</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8566,22 +8574,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C219" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D219" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E219" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F219" t="n">
-        <v>7005.7419</v>
+        <v>2833.2957</v>
       </c>
       <c r="G219" t="n">
-        <v>355</v>
+        <v>351.7666666666667</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8601,7 +8609,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C220" t="n">
         <v>354</v>
@@ -8610,13 +8618,13 @@
         <v>354</v>
       </c>
       <c r="E220" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F220" t="n">
-        <v>1065.3737</v>
+        <v>7005.7419</v>
       </c>
       <c r="G220" t="n">
-        <v>354.3333333333333</v>
+        <v>351.8666666666667</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8636,7 +8644,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C221" t="n">
         <v>354</v>
@@ -8645,13 +8653,13 @@
         <v>354</v>
       </c>
       <c r="E221" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F221" t="n">
-        <v>1170</v>
+        <v>1065.3737</v>
       </c>
       <c r="G221" t="n">
-        <v>354</v>
+        <v>351.95</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8671,22 +8679,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C222" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D222" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E222" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F222" t="n">
-        <v>5301.1723</v>
+        <v>1170</v>
       </c>
       <c r="G222" t="n">
-        <v>353.6666666666667</v>
+        <v>352.0666666666667</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8718,10 +8726,10 @@
         <v>353</v>
       </c>
       <c r="F223" t="n">
-        <v>1438.2101</v>
+        <v>5301.1723</v>
       </c>
       <c r="G223" t="n">
-        <v>353.3333333333333</v>
+        <v>352.1333333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8741,22 +8749,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C224" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D224" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E224" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F224" t="n">
-        <v>2408.2052</v>
+        <v>1438.2101</v>
       </c>
       <c r="G224" t="n">
-        <v>352.3333333333333</v>
+        <v>352.2333333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8776,22 +8784,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C225" t="n">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D225" t="n">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E225" t="n">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F225" t="n">
-        <v>1</v>
+        <v>2408.2052</v>
       </c>
       <c r="G225" t="n">
-        <v>352.6666666666667</v>
+        <v>352.3166666666667</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8811,22 +8819,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C226" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D226" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E226" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F226" t="n">
-        <v>4939.1504</v>
+        <v>1</v>
       </c>
       <c r="G226" t="n">
-        <v>352.3333333333333</v>
+        <v>352.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8858,10 +8866,10 @@
         <v>352</v>
       </c>
       <c r="F227" t="n">
-        <v>87.14230000000001</v>
+        <v>4939.1504</v>
       </c>
       <c r="G227" t="n">
-        <v>352.6666666666667</v>
+        <v>352.45</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8881,22 +8889,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C228" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D228" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E228" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F228" t="n">
-        <v>762</v>
+        <v>87.14230000000001</v>
       </c>
       <c r="G228" t="n">
-        <v>352.3333333333333</v>
+        <v>352.4833333333333</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8928,10 +8936,10 @@
         <v>353</v>
       </c>
       <c r="F229" t="n">
-        <v>978.3425</v>
+        <v>762</v>
       </c>
       <c r="G229" t="n">
-        <v>352.6666666666667</v>
+        <v>352.5333333333334</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8951,22 +8959,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C230" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D230" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E230" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F230" t="n">
-        <v>2572.86158192</v>
+        <v>978.3425</v>
       </c>
       <c r="G230" t="n">
-        <v>353.3333333333333</v>
+        <v>352.5833333333333</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8998,10 +9006,10 @@
         <v>354</v>
       </c>
       <c r="F231" t="n">
-        <v>1027.01761808</v>
+        <v>2572.86158192</v>
       </c>
       <c r="G231" t="n">
-        <v>353.6666666666667</v>
+        <v>352.6666666666667</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9033,10 +9041,10 @@
         <v>354</v>
       </c>
       <c r="F232" t="n">
-        <v>385.02748192</v>
+        <v>1027.01761808</v>
       </c>
       <c r="G232" t="n">
-        <v>354</v>
+        <v>352.7333333333333</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9056,22 +9064,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C233" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D233" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E233" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F233" t="n">
-        <v>611</v>
+        <v>385.02748192</v>
       </c>
       <c r="G233" t="n">
-        <v>353.6666666666667</v>
+        <v>352.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9091,7 +9099,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C234" t="n">
         <v>353</v>
@@ -9100,13 +9108,13 @@
         <v>353</v>
       </c>
       <c r="E234" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F234" t="n">
-        <v>1711.2383</v>
+        <v>611</v>
       </c>
       <c r="G234" t="n">
-        <v>353.3333333333333</v>
+        <v>352.85</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9126,7 +9134,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C235" t="n">
         <v>353</v>
@@ -9135,13 +9143,13 @@
         <v>353</v>
       </c>
       <c r="E235" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F235" t="n">
-        <v>38.3676</v>
+        <v>1711.2383</v>
       </c>
       <c r="G235" t="n">
-        <v>353</v>
+        <v>352.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9161,22 +9169,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C236" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D236" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E236" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F236" t="n">
-        <v>1041.5381</v>
+        <v>38.3676</v>
       </c>
       <c r="G236" t="n">
-        <v>352.6666666666667</v>
+        <v>352.9333333333333</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9196,22 +9204,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C237" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D237" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E237" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F237" t="n">
-        <v>54.4844</v>
+        <v>1041.5381</v>
       </c>
       <c r="G237" t="n">
-        <v>352.6666666666667</v>
+        <v>352.95</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9243,10 +9251,10 @@
         <v>353</v>
       </c>
       <c r="F238" t="n">
-        <v>1609.9705</v>
+        <v>54.4844</v>
       </c>
       <c r="G238" t="n">
-        <v>352.6666666666667</v>
+        <v>352.9833333333333</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9269,19 +9277,19 @@
         <v>353</v>
       </c>
       <c r="C239" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D239" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E239" t="n">
         <v>353</v>
       </c>
       <c r="F239" t="n">
-        <v>746.1609</v>
+        <v>1609.9705</v>
       </c>
       <c r="G239" t="n">
-        <v>353.3333333333333</v>
+        <v>353.0166666666667</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9304,19 +9312,19 @@
         <v>353</v>
       </c>
       <c r="C240" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D240" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E240" t="n">
         <v>353</v>
       </c>
       <c r="F240" t="n">
-        <v>386.4351</v>
+        <v>746.1609</v>
       </c>
       <c r="G240" t="n">
-        <v>353.3333333333333</v>
+        <v>353.0833333333333</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9336,22 +9344,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C241" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D241" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E241" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F241" t="n">
-        <v>601.0028</v>
+        <v>386.4351</v>
       </c>
       <c r="G241" t="n">
-        <v>353.6666666666667</v>
+        <v>353.1333333333333</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9383,10 +9391,10 @@
         <v>354</v>
       </c>
       <c r="F242" t="n">
-        <v>286.0169</v>
+        <v>601.0028</v>
       </c>
       <c r="G242" t="n">
-        <v>353.6666666666667</v>
+        <v>353.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9406,22 +9414,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C243" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D243" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E243" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F243" t="n">
-        <v>1731.3549</v>
+        <v>286.0169</v>
       </c>
       <c r="G243" t="n">
-        <v>353.3333333333333</v>
+        <v>353.25</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9441,22 +9449,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C244" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D244" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E244" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F244" t="n">
-        <v>35</v>
+        <v>1731.3549</v>
       </c>
       <c r="G244" t="n">
-        <v>353.3333333333333</v>
+        <v>353.2666666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9488,10 +9496,10 @@
         <v>354</v>
       </c>
       <c r="F245" t="n">
-        <v>29.6768</v>
+        <v>35</v>
       </c>
       <c r="G245" t="n">
-        <v>353.3333333333333</v>
+        <v>353.3166666666667</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9511,22 +9519,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C246" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D246" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E246" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F246" t="n">
-        <v>1035.7821</v>
+        <v>29.6768</v>
       </c>
       <c r="G246" t="n">
-        <v>354.3333333333333</v>
+        <v>353.4</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9558,10 +9566,10 @@
         <v>355</v>
       </c>
       <c r="F247" t="n">
-        <v>20</v>
+        <v>1035.7821</v>
       </c>
       <c r="G247" t="n">
-        <v>354.6666666666667</v>
+        <v>353.4666666666666</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9581,22 +9589,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C248" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D248" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E248" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F248" t="n">
-        <v>471</v>
+        <v>20</v>
       </c>
       <c r="G248" t="n">
-        <v>354.6666666666667</v>
+        <v>353.55</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9628,10 +9636,10 @@
         <v>354</v>
       </c>
       <c r="F249" t="n">
-        <v>948.164</v>
+        <v>471</v>
       </c>
       <c r="G249" t="n">
-        <v>354.3333333333333</v>
+        <v>353.6</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9651,22 +9659,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C250" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D250" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E250" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F250" t="n">
-        <v>1.11</v>
+        <v>948.164</v>
       </c>
       <c r="G250" t="n">
-        <v>354.3333333333333</v>
+        <v>353.65</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9698,10 +9706,10 @@
         <v>355</v>
       </c>
       <c r="F251" t="n">
-        <v>3095.4901</v>
+        <v>1.11</v>
       </c>
       <c r="G251" t="n">
-        <v>354.6666666666667</v>
+        <v>353.6833333333333</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9733,10 +9741,10 @@
         <v>355</v>
       </c>
       <c r="F252" t="n">
-        <v>1390.2591</v>
+        <v>3095.4901</v>
       </c>
       <c r="G252" t="n">
-        <v>355</v>
+        <v>353.75</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9768,10 +9776,10 @@
         <v>355</v>
       </c>
       <c r="F253" t="n">
-        <v>976.4985</v>
+        <v>1390.2591</v>
       </c>
       <c r="G253" t="n">
-        <v>355</v>
+        <v>353.7833333333334</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9803,10 +9811,10 @@
         <v>355</v>
       </c>
       <c r="F254" t="n">
-        <v>4271.5638</v>
+        <v>976.4985</v>
       </c>
       <c r="G254" t="n">
-        <v>355</v>
+        <v>353.8333333333333</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9832,16 +9840,16 @@
         <v>355</v>
       </c>
       <c r="D255" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E255" t="n">
         <v>355</v>
       </c>
       <c r="F255" t="n">
-        <v>1881.6086</v>
+        <v>4271.5638</v>
       </c>
       <c r="G255" t="n">
-        <v>355</v>
+        <v>353.9</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9861,22 +9869,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C256" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D256" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E256" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F256" t="n">
-        <v>1488.7376</v>
+        <v>1881.6086</v>
       </c>
       <c r="G256" t="n">
-        <v>354.6666666666667</v>
+        <v>353.9666666666666</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9899,19 +9907,19 @@
         <v>354</v>
       </c>
       <c r="C257" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D257" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E257" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F257" t="n">
-        <v>2502.4843</v>
+        <v>1488.7376</v>
       </c>
       <c r="G257" t="n">
-        <v>355</v>
+        <v>354.0166666666667</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9931,7 +9939,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C258" t="n">
         <v>356</v>
@@ -9940,13 +9948,13 @@
         <v>356</v>
       </c>
       <c r="E258" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F258" t="n">
-        <v>365.9199</v>
+        <v>2502.4843</v>
       </c>
       <c r="G258" t="n">
-        <v>355.3333333333333</v>
+        <v>354.1166666666667</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9966,22 +9974,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C259" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D259" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E259" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F259" t="n">
-        <v>6100</v>
+        <v>365.9199</v>
       </c>
       <c r="G259" t="n">
-        <v>355</v>
+        <v>354.1833333333333</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10001,22 +10009,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C260" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D260" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E260" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F260" t="n">
-        <v>2998.9999</v>
+        <v>6100</v>
       </c>
       <c r="G260" t="n">
-        <v>354.3333333333333</v>
+        <v>354.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10039,19 +10047,19 @@
         <v>354</v>
       </c>
       <c r="C261" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D261" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E261" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F261" t="n">
-        <v>5172.0662</v>
+        <v>2998.9999</v>
       </c>
       <c r="G261" t="n">
-        <v>353.3333333333333</v>
+        <v>354.2333333333333</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10071,22 +10079,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C262" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D262" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E262" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F262" t="n">
-        <v>7032.86</v>
+        <v>5172.0662</v>
       </c>
       <c r="G262" t="n">
-        <v>353</v>
+        <v>354.25</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10109,19 +10117,19 @@
         <v>352</v>
       </c>
       <c r="C263" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D263" t="n">
         <v>352</v>
       </c>
       <c r="E263" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F263" t="n">
-        <v>4104.0635</v>
+        <v>7032.86</v>
       </c>
       <c r="G263" t="n">
-        <v>352</v>
+        <v>354.2333333333333</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10141,22 +10149,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C264" t="n">
         <v>351</v>
       </c>
       <c r="D264" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E264" t="n">
         <v>351</v>
       </c>
       <c r="F264" t="n">
-        <v>1167.075</v>
+        <v>4104.0635</v>
       </c>
       <c r="G264" t="n">
-        <v>351.3333333333333</v>
+        <v>354.15</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10176,22 +10184,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C265" t="n">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D265" t="n">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E265" t="n">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F265" t="n">
-        <v>1</v>
+        <v>1167.075</v>
       </c>
       <c r="G265" t="n">
-        <v>352</v>
+        <v>354.0666666666667</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10214,19 +10222,19 @@
         <v>354</v>
       </c>
       <c r="C266" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D266" t="n">
         <v>354</v>
       </c>
       <c r="E266" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F266" t="n">
-        <v>3638.6553</v>
+        <v>1</v>
       </c>
       <c r="G266" t="n">
-        <v>352.3333333333333</v>
+        <v>354.0666666666667</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10246,22 +10254,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C267" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D267" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E267" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F267" t="n">
-        <v>2291.6317</v>
+        <v>3638.6553</v>
       </c>
       <c r="G267" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10281,22 +10289,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C268" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D268" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E268" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F268" t="n">
-        <v>1.1</v>
+        <v>2291.6317</v>
       </c>
       <c r="G268" t="n">
-        <v>353</v>
+        <v>353.95</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10316,7 +10324,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C269" t="n">
         <v>354</v>
@@ -10325,13 +10333,13 @@
         <v>354</v>
       </c>
       <c r="E269" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F269" t="n">
-        <v>1241.1</v>
+        <v>1.1</v>
       </c>
       <c r="G269" t="n">
-        <v>353.6666666666667</v>
+        <v>353.9333333333333</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10354,19 +10362,19 @@
         <v>351</v>
       </c>
       <c r="C270" t="n">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D270" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E270" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F270" t="n">
-        <v>12224.8626</v>
+        <v>1241.1</v>
       </c>
       <c r="G270" t="n">
-        <v>352.6666666666667</v>
+        <v>353.9</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10386,22 +10394,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C271" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D271" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E271" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F271" t="n">
-        <v>16491.8439</v>
+        <v>12224.8626</v>
       </c>
       <c r="G271" t="n">
-        <v>351</v>
+        <v>353.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10421,22 +10429,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C272" t="n">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D272" t="n">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E272" t="n">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F272" t="n">
-        <v>1</v>
+        <v>16491.8439</v>
       </c>
       <c r="G272" t="n">
-        <v>351</v>
+        <v>353.6666666666667</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10456,22 +10464,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C273" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D273" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E273" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F273" t="n">
-        <v>2505.9856</v>
+        <v>1</v>
       </c>
       <c r="G273" t="n">
-        <v>351.6666666666667</v>
+        <v>353.6333333333333</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10491,22 +10499,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C274" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D274" t="n">
         <v>353</v>
       </c>
       <c r="E274" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F274" t="n">
-        <v>308.6458</v>
+        <v>2505.9856</v>
       </c>
       <c r="G274" t="n">
-        <v>353</v>
+        <v>353.5666666666667</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10526,22 +10534,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C275" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D275" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E275" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F275" t="n">
-        <v>3146.532</v>
+        <v>308.6458</v>
       </c>
       <c r="G275" t="n">
-        <v>353</v>
+        <v>353.5333333333334</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10561,10 +10569,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
+        <v>351</v>
+      </c>
+      <c r="C276" t="n">
         <v>354</v>
-      </c>
-      <c r="C276" t="n">
-        <v>351</v>
       </c>
       <c r="D276" t="n">
         <v>354</v>
@@ -10573,10 +10581,10 @@
         <v>351</v>
       </c>
       <c r="F276" t="n">
-        <v>4485.3766</v>
+        <v>3146.532</v>
       </c>
       <c r="G276" t="n">
-        <v>352.6666666666667</v>
+        <v>353.5166666666667</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10596,22 +10604,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C277" t="n">
         <v>351</v>
       </c>
       <c r="D277" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E277" t="n">
         <v>351</v>
       </c>
       <c r="F277" t="n">
-        <v>1432.9586</v>
+        <v>4485.3766</v>
       </c>
       <c r="G277" t="n">
-        <v>352</v>
+        <v>353.4333333333333</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10631,22 +10639,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C278" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D278" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E278" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F278" t="n">
-        <v>236.9419</v>
+        <v>1432.9586</v>
       </c>
       <c r="G278" t="n">
-        <v>351.6666666666667</v>
+        <v>353.35</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10666,22 +10674,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C279" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D279" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E279" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F279" t="n">
-        <v>4774.5194</v>
+        <v>236.9419</v>
       </c>
       <c r="G279" t="n">
-        <v>351.6666666666667</v>
+        <v>353.3166666666667</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10701,22 +10709,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C280" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D280" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E280" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F280" t="n">
-        <v>39834.3497</v>
+        <v>4774.5194</v>
       </c>
       <c r="G280" t="n">
-        <v>350.3333333333333</v>
+        <v>353.2666666666667</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10736,22 +10744,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
+        <v>350</v>
+      </c>
+      <c r="C281" t="n">
         <v>347</v>
       </c>
-      <c r="C281" t="n">
-        <v>346</v>
-      </c>
       <c r="D281" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E281" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F281" t="n">
-        <v>3804.1167</v>
+        <v>39834.3497</v>
       </c>
       <c r="G281" t="n">
-        <v>348</v>
+        <v>353.15</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10771,22 +10779,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C282" t="n">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D282" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E282" t="n">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F282" t="n">
-        <v>105.1462</v>
+        <v>3804.1167</v>
       </c>
       <c r="G282" t="n">
-        <v>347.6666666666667</v>
+        <v>353.0166666666667</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10806,22 +10814,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C283" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D283" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E283" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F283" t="n">
-        <v>3186.3732</v>
+        <v>105.1462</v>
       </c>
       <c r="G283" t="n">
-        <v>347.6666666666667</v>
+        <v>352.9666666666666</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10844,19 +10852,19 @@
         <v>347</v>
       </c>
       <c r="C284" t="n">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D284" t="n">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E284" t="n">
         <v>347</v>
       </c>
       <c r="F284" t="n">
-        <v>1793.77</v>
+        <v>3186.3732</v>
       </c>
       <c r="G284" t="n">
-        <v>349.3333333333333</v>
+        <v>352.8666666666667</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10876,22 +10884,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C285" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D285" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E285" t="n">
         <v>347</v>
       </c>
       <c r="F285" t="n">
-        <v>2671.0156</v>
+        <v>1793.77</v>
       </c>
       <c r="G285" t="n">
-        <v>348.3333333333333</v>
+        <v>352.8666666666667</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10911,22 +10919,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C286" t="n">
         <v>347</v>
       </c>
       <c r="D286" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E286" t="n">
         <v>347</v>
       </c>
       <c r="F286" t="n">
-        <v>445</v>
+        <v>2671.0156</v>
       </c>
       <c r="G286" t="n">
-        <v>348.3333333333333</v>
+        <v>352.75</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10946,22 +10954,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C287" t="n">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D287" t="n">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E287" t="n">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F287" t="n">
-        <v>1700.9173</v>
+        <v>445</v>
       </c>
       <c r="G287" t="n">
-        <v>348.3333333333333</v>
+        <v>352.6666666666667</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10996,7 +11004,7 @@
         <v>1700.9173</v>
       </c>
       <c r="G288" t="n">
-        <v>349.6666666666667</v>
+        <v>352.65</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -11016,22 +11024,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C289" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D289" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E289" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F289" t="n">
-        <v>1</v>
+        <v>1700.9173</v>
       </c>
       <c r="G289" t="n">
-        <v>351.3333333333333</v>
+        <v>352.6166666666667</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -11051,22 +11059,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C290" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D290" t="n">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E290" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F290" t="n">
-        <v>1894.0832</v>
+        <v>1</v>
       </c>
       <c r="G290" t="n">
-        <v>350</v>
+        <v>352.6</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -11086,22 +11094,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C291" t="n">
         <v>347</v>
       </c>
       <c r="D291" t="n">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E291" t="n">
         <v>347</v>
       </c>
       <c r="F291" t="n">
-        <v>65.6255</v>
+        <v>1894.0832</v>
       </c>
       <c r="G291" t="n">
-        <v>348.6666666666667</v>
+        <v>352.4833333333333</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -11121,22 +11129,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C292" t="n">
         <v>347</v>
       </c>
       <c r="D292" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E292" t="n">
         <v>347</v>
       </c>
       <c r="F292" t="n">
-        <v>2418.7236</v>
+        <v>65.6255</v>
       </c>
       <c r="G292" t="n">
-        <v>347</v>
+        <v>352.3666666666667</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -11159,19 +11167,19 @@
         <v>347</v>
       </c>
       <c r="C293" t="n">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D293" t="n">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E293" t="n">
         <v>347</v>
       </c>
       <c r="F293" t="n">
-        <v>2985.1166</v>
+        <v>2418.7236</v>
       </c>
       <c r="G293" t="n">
-        <v>348.6666666666667</v>
+        <v>352.25</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -11191,22 +11199,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C294" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D294" t="n">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E294" t="n">
         <v>347</v>
       </c>
       <c r="F294" t="n">
-        <v>454.7434</v>
+        <v>2985.1166</v>
       </c>
       <c r="G294" t="n">
-        <v>348.6666666666667</v>
+        <v>352.2333333333333</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -11221,6 +11229,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>348</v>
+      </c>
+      <c r="C295" t="n">
+        <v>347</v>
+      </c>
+      <c r="D295" t="n">
+        <v>348</v>
+      </c>
+      <c r="E295" t="n">
+        <v>347</v>
+      </c>
+      <c r="F295" t="n">
+        <v>454.7434</v>
+      </c>
+      <c r="G295" t="n">
+        <v>352.1333333333333</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
+      <c r="M295" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-27 BackTest MTL.xlsx
+++ b/BackTest/2019-10-27 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>16385.30850362</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>16386.30850362</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>13523.31100362</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>9803.423803619993</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>9804.627103619992</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>8914.621603619993</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>8816.811103619993</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>8816.811103619993</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>8816.811103619993</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>8818.899703619993</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>6916.899803619993</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>6916.899803619993</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>6918.600003619993</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>3720.374403619993</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-5897.145096380007</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-5837.582696380007</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-5837.582696380007</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-16211.87389638001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-16211.87389638001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-16110.87389638001</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-16959.87379638</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-16959.87379638</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-16959.87379638</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-16959.87379638</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-16959.87379638</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-15379.82939638</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-28413.24789638001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-28413.24789638001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-28413.24789638001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-24515.25639638001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-24739.92149638</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-24739.92149638</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-25651.03619638</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-25651.03619638</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-27526.98029638</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-27525.98029638</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-27525.98029638</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-176913.07919638</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-193413.17669638</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-192457.69169638</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-192457.69169638</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-192593.66389638</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-192592.56389638</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-192322.56959638</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-193736.69229638</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-193736.69229638</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-193989.77549638</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-193989.77549638</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-193885.73339638</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-193885.73339638</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-196719.02909638</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-216372.29889638</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-213037.43731446</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-213037.43731446</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-213648.43731446</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-213648.43731446</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-213648.43731446</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-214689.97541446</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-214635.49101446</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-213889.33011446</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-214275.76521446</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-214335.33521446</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11308,14 +11308,10 @@
         <v>-263262.09841446</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>349</v>
-      </c>
-      <c r="J331" t="n">
-        <v>349</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
@@ -11348,14 +11344,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>349</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11387,14 +11377,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>349</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11588,165 +11572,153 @@
         <v>-311170.2100144601</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>351</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>347</v>
+      </c>
+      <c r="C340" t="n">
+        <v>346</v>
+      </c>
+      <c r="D340" t="n">
+        <v>352</v>
+      </c>
+      <c r="E340" t="n">
+        <v>346</v>
+      </c>
+      <c r="F340" t="n">
+        <v>3804.1167</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-314974.3267144601</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>350</v>
+      </c>
+      <c r="C341" t="n">
+        <v>350</v>
+      </c>
+      <c r="D341" t="n">
+        <v>350</v>
+      </c>
+      <c r="E341" t="n">
+        <v>350</v>
+      </c>
+      <c r="F341" t="n">
+        <v>105.1462</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-314869.1805144601</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>347</v>
+      </c>
+      <c r="C342" t="n">
+        <v>347</v>
+      </c>
+      <c r="D342" t="n">
+        <v>347</v>
+      </c>
+      <c r="E342" t="n">
+        <v>347</v>
+      </c>
+      <c r="F342" t="n">
+        <v>3186.3732</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-318055.5537144601</v>
+      </c>
+      <c r="H342" t="n">
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>350</v>
+      </c>
+      <c r="J342" t="n">
+        <v>350</v>
+      </c>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>347</v>
+      </c>
+      <c r="C343" t="n">
+        <v>351</v>
+      </c>
+      <c r="D343" t="n">
+        <v>351</v>
+      </c>
+      <c r="E343" t="n">
+        <v>347</v>
+      </c>
+      <c r="F343" t="n">
+        <v>1793.77</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-316261.78371446</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>350</v>
+      </c>
+      <c r="K343" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>347</v>
-      </c>
-      <c r="C340" t="n">
-        <v>346</v>
-      </c>
-      <c r="D340" t="n">
-        <v>352</v>
-      </c>
-      <c r="E340" t="n">
-        <v>346</v>
-      </c>
-      <c r="F340" t="n">
-        <v>3804.1167</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-314974.3267144601</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>350</v>
-      </c>
-      <c r="C341" t="n">
-        <v>350</v>
-      </c>
-      <c r="D341" t="n">
-        <v>350</v>
-      </c>
-      <c r="E341" t="n">
-        <v>350</v>
-      </c>
-      <c r="F341" t="n">
-        <v>105.1462</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-314869.1805144601</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>347</v>
-      </c>
-      <c r="C342" t="n">
-        <v>347</v>
-      </c>
-      <c r="D342" t="n">
-        <v>347</v>
-      </c>
-      <c r="E342" t="n">
-        <v>347</v>
-      </c>
-      <c r="F342" t="n">
-        <v>3186.3732</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-318055.5537144601</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>347</v>
-      </c>
-      <c r="C343" t="n">
-        <v>351</v>
-      </c>
-      <c r="D343" t="n">
-        <v>351</v>
-      </c>
-      <c r="E343" t="n">
-        <v>347</v>
-      </c>
-      <c r="F343" t="n">
-        <v>1793.77</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-316261.78371446</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11775,10 +11747,14 @@
         <v>-318932.79931446</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>351</v>
+      </c>
+      <c r="J344" t="n">
+        <v>350</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11812,10 +11788,14 @@
         <v>-318932.79931446</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>347</v>
+      </c>
+      <c r="J345" t="n">
+        <v>350</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11854,7 +11834,9 @@
       <c r="I346" t="n">
         <v>347</v>
       </c>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>350</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11888,12 +11870,12 @@
         <v>-317231.88201446</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>351</v>
-      </c>
-      <c r="J347" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>350</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11927,12 +11909,12 @@
         <v>-317230.88201446</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>351</v>
-      </c>
-      <c r="J348" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>350</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11966,12 +11948,12 @@
         <v>-319124.96521446</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>352</v>
-      </c>
-      <c r="J349" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>350</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12010,7 +11992,9 @@
       <c r="I350" t="n">
         <v>347</v>
       </c>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>350</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12049,7 +12033,9 @@
       <c r="I351" t="n">
         <v>347</v>
       </c>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>350</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12083,12 +12069,12 @@
         <v>-316139.84861446</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>347</v>
-      </c>
-      <c r="J352" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>350</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12122,12 +12108,12 @@
         <v>-316594.59201446</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>352</v>
-      </c>
-      <c r="J353" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>350</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12166,7 +12152,9 @@
       <c r="I354" t="n">
         <v>347</v>
       </c>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>350</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12205,7 +12193,9 @@
       <c r="I355" t="n">
         <v>346</v>
       </c>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>350</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12239,12 +12229,12 @@
         <v>-305808.78761446</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>350</v>
-      </c>
-      <c r="J356" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>350</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12278,10 +12268,14 @@
         <v>-305774.88461446</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>348</v>
+      </c>
+      <c r="J357" t="n">
+        <v>350</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12315,10 +12309,14 @@
         <v>-306409.41071446</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>350</v>
+      </c>
+      <c r="J358" t="n">
+        <v>350</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12355,7 +12353,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>350</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12392,7 +12392,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>350</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12429,7 +12431,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>350</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12466,7 +12470,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>350</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12503,7 +12509,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>350</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12515,6 +12523,6 @@
       <c r="M363" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest MTL.xlsx
+++ b/BackTest/2019-10-27 BackTest MTL.xlsx
@@ -451,7 +451,7 @@
         <v>16385.30850362</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>16386.30850362</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>13524.31100362</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>12999.33940362</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>12999.33940362</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>12999.33940362</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>14704.88060361999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>12153.75350361999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>12154.75350361999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>11931.93640361999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>10301.93640361999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>10306.42380361999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>8816.811103619993</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-5837.582696380007</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-16211.87389638001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-16211.87389638001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-16485.69839638</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-10842.58189638</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-10842.58189638</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-12360.38669638</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-27525.98029638</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-27525.98029638</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-27534.98029638</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -8338,10 +8338,14 @@
         <v>-192112.51509638</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>350</v>
+      </c>
+      <c r="J241" t="n">
+        <v>350</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
@@ -8374,8 +8378,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>350</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +8417,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>350</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8453,19 @@
         <v>-195319.64719638</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>351</v>
+      </c>
+      <c r="J244" t="n">
+        <v>350</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +8494,19 @@
         <v>-195172.39769638</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>349</v>
+      </c>
+      <c r="J245" t="n">
+        <v>350</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +8535,19 @@
         <v>-195174.30769638</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>351</v>
+      </c>
+      <c r="J246" t="n">
+        <v>350</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +8576,19 @@
         <v>-195173.30769638</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>350</v>
+      </c>
+      <c r="J247" t="n">
+        <v>350</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8617,19 @@
         <v>-195173.30769638</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>351</v>
+      </c>
+      <c r="J248" t="n">
+        <v>350</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +8658,19 @@
         <v>-189404.16849638</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>351</v>
+      </c>
+      <c r="J249" t="n">
+        <v>350</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8638,8 +8702,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>350</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +8738,19 @@
         <v>-193150.84419638</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>351</v>
+      </c>
+      <c r="J251" t="n">
+        <v>350</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +8779,19 @@
         <v>-193151.84419638</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>353</v>
+      </c>
+      <c r="J252" t="n">
+        <v>350</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +8820,19 @@
         <v>-197835.42419638</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>352</v>
+      </c>
+      <c r="J253" t="n">
+        <v>350</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +8861,19 @@
         <v>-197835.42419638</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>351</v>
+      </c>
+      <c r="J254" t="n">
+        <v>350</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +8902,19 @@
         <v>-197835.42419638</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>351</v>
+      </c>
+      <c r="J255" t="n">
+        <v>350</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8833,11 +8943,19 @@
         <v>-200185.42419638</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>351</v>
+      </c>
+      <c r="J256" t="n">
+        <v>350</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8866,11 +8984,19 @@
         <v>-200184.42419638</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>350</v>
+      </c>
+      <c r="J257" t="n">
+        <v>350</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +9025,19 @@
         <v>-200184.42419638</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>352</v>
+      </c>
+      <c r="J258" t="n">
+        <v>350</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8935,8 +9069,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>350</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8965,11 +9105,19 @@
         <v>-200184.42419638</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>352</v>
+      </c>
+      <c r="J260" t="n">
+        <v>350</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +9146,19 @@
         <v>-197894.86569638</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>352</v>
+      </c>
+      <c r="J261" t="n">
+        <v>350</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +9187,19 @@
         <v>-176913.07919638</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>353</v>
+      </c>
+      <c r="J262" t="n">
+        <v>350</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9064,11 +9228,17 @@
         <v>-176913.07919638</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>350</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,11 +9267,17 @@
         <v>-193413.17669638</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>350</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +9306,17 @@
         <v>-192457.69169638</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>350</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +9345,17 @@
         <v>-192457.69169638</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>350</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +9384,17 @@
         <v>-192593.66389638</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>350</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9229,11 +9423,17 @@
         <v>-192592.56389638</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>350</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9265,8 +9465,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>350</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +9501,17 @@
         <v>-192322.56959638</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>350</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +9540,17 @@
         <v>-193736.69229638</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>350</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9579,17 @@
         <v>-193736.69229638</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>350</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9618,17 @@
         <v>-193989.77549638</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>350</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9657,17 @@
         <v>-193989.77549638</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>350</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +9696,17 @@
         <v>-193885.73339638</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>350</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9493,11 +9735,17 @@
         <v>-193885.73339638</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>350</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +9774,17 @@
         <v>-196719.02909638</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>350</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9562,8 +9816,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>350</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9595,8 +9855,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>350</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9628,8 +9894,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>350</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9661,8 +9933,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>350</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9694,8 +9972,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>350</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +10008,19 @@
         <v>-211434.14849638</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>353</v>
+      </c>
+      <c r="J283" t="n">
+        <v>350</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +10049,19 @@
         <v>-211433.14849638</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>351</v>
+      </c>
+      <c r="J284" t="n">
+        <v>350</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9793,8 +10093,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>350</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +10129,17 @@
         <v>-216372.29889638</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>350</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9859,8 +10171,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>350</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9892,8 +10210,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>350</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9925,8 +10249,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>350</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +10285,17 @@
         <v>-213037.43731446</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>350</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +10324,17 @@
         <v>-213037.43731446</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>350</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +10363,17 @@
         <v>-213648.43731446</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>350</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10054,11 +10402,17 @@
         <v>-213648.43731446</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>350</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +10441,17 @@
         <v>-213648.43731446</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>350</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10480,17 @@
         <v>-214689.97541446</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>350</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +10519,17 @@
         <v>-214635.49101446</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>350</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10189,8 +10561,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>350</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +10597,17 @@
         <v>-213889.33011446</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>350</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +10636,17 @@
         <v>-214275.76521446</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>350</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10288,8 +10678,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>350</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10321,8 +10717,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>350</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10354,8 +10756,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>350</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10387,8 +10795,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>350</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10420,8 +10834,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>350</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10453,8 +10873,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>350</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10483,11 +10909,17 @@
         <v>-214335.33521446</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>350</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10519,8 +10951,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>350</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10552,8 +10990,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>350</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10585,8 +11029,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>350</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10618,8 +11068,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>350</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10651,8 +11107,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>350</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10684,8 +11146,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>350</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10717,8 +11185,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>350</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10750,8 +11224,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>350</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10783,8 +11263,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>350</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10816,8 +11302,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>350</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10849,8 +11341,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>350</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10882,8 +11380,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>350</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10915,8 +11419,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>350</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +11455,19 @@
         <v>-222064.54481446</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>354</v>
+      </c>
+      <c r="J320" t="n">
+        <v>350</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10981,8 +11499,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>350</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11014,8 +11538,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>350</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11044,11 +11574,19 @@
         <v>-233201.46831446</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>351</v>
+      </c>
+      <c r="J323" t="n">
+        <v>350</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +11615,19 @@
         <v>-233200.46831446</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>351</v>
+      </c>
+      <c r="J324" t="n">
+        <v>350</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11113,8 +11659,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>350</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11146,8 +11698,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>350</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11179,8 +11737,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>350</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11212,8 +11776,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>350</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11245,8 +11815,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>350</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11278,8 +11854,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>350</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11308,11 +11890,19 @@
         <v>-263262.09841446</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>349</v>
+      </c>
+      <c r="J331" t="n">
+        <v>350</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11344,8 +11934,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>350</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11377,8 +11973,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>350</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11410,8 +12012,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>350</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11443,8 +12051,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>350</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11473,11 +12087,19 @@
         <v>-266798.28281446</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>351</v>
+      </c>
+      <c r="J336" t="n">
+        <v>350</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11506,11 +12128,19 @@
         <v>-266561.3409144601</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>351</v>
+      </c>
+      <c r="J337" t="n">
+        <v>350</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +12169,19 @@
         <v>-271335.8603144601</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>353</v>
+      </c>
+      <c r="J338" t="n">
+        <v>350</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +12210,19 @@
         <v>-311170.2100144601</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>351</v>
+      </c>
+      <c r="J339" t="n">
+        <v>350</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11608,8 +12254,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>350</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11641,8 +12293,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>350</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11671,15 +12329,17 @@
         <v>-318055.5537144601</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
         <v>350</v>
       </c>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11716,7 +12376,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L343" t="n">
@@ -11747,11 +12407,9 @@
         <v>-318932.79931446</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>351</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
         <v>350</v>
       </c>
@@ -11788,11 +12446,9 @@
         <v>-318932.79931446</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>347</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
         <v>350</v>
       </c>
@@ -11870,9 +12526,11 @@
         <v>-317231.88201446</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>351</v>
+      </c>
       <c r="J347" t="n">
         <v>350</v>
       </c>
@@ -11909,9 +12567,11 @@
         <v>-317230.88201446</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>351</v>
+      </c>
       <c r="J348" t="n">
         <v>350</v>
       </c>
@@ -11948,9 +12608,11 @@
         <v>-319124.96521446</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>352</v>
+      </c>
       <c r="J349" t="n">
         <v>350</v>
       </c>
@@ -12069,9 +12731,11 @@
         <v>-316139.84861446</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>347</v>
+      </c>
       <c r="J352" t="n">
         <v>350</v>
       </c>
@@ -12108,9 +12772,11 @@
         <v>-316594.59201446</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>352</v>
+      </c>
       <c r="J353" t="n">
         <v>350</v>
       </c>
@@ -12229,9 +12895,11 @@
         <v>-305808.78761446</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>350</v>
+      </c>
       <c r="J356" t="n">
         <v>350</v>
       </c>
@@ -12268,11 +12936,9 @@
         <v>-305774.88461446</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>348</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
         <v>350</v>
       </c>
@@ -12389,9 +13055,11 @@
         <v>-313554.66161446</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>352</v>
+      </c>
       <c r="J360" t="n">
         <v>350</v>
       </c>
@@ -12428,9 +13096,11 @@
         <v>-313553.66161446</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>349</v>
+      </c>
       <c r="J361" t="n">
         <v>350</v>
       </c>
@@ -12467,9 +13137,11 @@
         <v>-313575.99521446</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>350</v>
+      </c>
       <c r="J362" t="n">
         <v>350</v>
       </c>
@@ -12506,9 +13178,11 @@
         <v>-322320.54621446</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>349</v>
+      </c>
       <c r="J363" t="n">
         <v>350</v>
       </c>
